--- a/Code/Results/Cases/Case_5_14/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_14/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,845 +409,995 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.59408727451441</v>
+        <v>24.37627107661445</v>
       </c>
       <c r="C2">
-        <v>15.19803383117405</v>
+        <v>13.36963614323071</v>
       </c>
       <c r="D2">
-        <v>7.660567261639331</v>
+        <v>4.636780390264086</v>
       </c>
       <c r="E2">
-        <v>7.049216164497716</v>
+        <v>6.67759112443094</v>
       </c>
       <c r="F2">
-        <v>63.33007661573352</v>
+        <v>36.78536816743892</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>9.099239662164777</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>7.349282331826294</v>
       </c>
       <c r="M2">
-        <v>16.11183812268398</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>29.0731116253815</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.96551404633447</v>
+        <v>22.64022848822767</v>
       </c>
       <c r="C3">
-        <v>14.0506022366614</v>
+        <v>12.59911302355305</v>
       </c>
       <c r="D3">
-        <v>7.285926266971583</v>
+        <v>4.716934313106491</v>
       </c>
       <c r="E3">
-        <v>6.792537295104921</v>
+        <v>6.696070023144427</v>
       </c>
       <c r="F3">
-        <v>59.44987505291163</v>
+        <v>35.093326064053</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>8.770358103613537</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>7.09135059577217</v>
       </c>
       <c r="M3">
-        <v>14.94216057935965</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>27.92123045399472</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.92382949881409</v>
+        <v>21.52111681726825</v>
       </c>
       <c r="C4">
-        <v>13.3179592501004</v>
+        <v>12.10507421170965</v>
       </c>
       <c r="D4">
-        <v>7.052792113269211</v>
+        <v>4.768110360212509</v>
       </c>
       <c r="E4">
-        <v>6.637476267935235</v>
+        <v>6.710640660589082</v>
       </c>
       <c r="F4">
-        <v>57.00830217700321</v>
+        <v>34.05737423016311</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>8.570019102065322</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>6.934328714951779</v>
       </c>
       <c r="M4">
-        <v>14.1935580884103</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>27.2246254595685</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.48847212441932</v>
+        <v>21.05152594526758</v>
       </c>
       <c r="C5">
-        <v>13.01200957131558</v>
+        <v>11.89847639849265</v>
       </c>
       <c r="D5">
-        <v>6.956983621073412</v>
+        <v>4.789436410942113</v>
       </c>
       <c r="E5">
-        <v>6.574931334533185</v>
+        <v>6.717356244074438</v>
       </c>
       <c r="F5">
-        <v>55.99843981015587</v>
+        <v>33.63630074251189</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>8.488769190989371</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>6.870736097430593</v>
       </c>
       <c r="M5">
-        <v>13.88056880159478</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>26.94359641574751</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.41551543501926</v>
+        <v>20.97272819982835</v>
       </c>
       <c r="C6">
-        <v>12.96075164008092</v>
+        <v>11.8638527330819</v>
       </c>
       <c r="D6">
-        <v>6.941025817523327</v>
+        <v>4.793005498871024</v>
       </c>
       <c r="E6">
-        <v>6.564585032587855</v>
+        <v>6.718517424875832</v>
       </c>
       <c r="F6">
-        <v>55.8298568717955</v>
+        <v>33.5664587558235</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>8.475301207639403</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>6.860202230894882</v>
       </c>
       <c r="M6">
-        <v>13.8281107520653</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>26.89710891057579</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.91800255123544</v>
+        <v>21.51483879788816</v>
       </c>
       <c r="C7">
-        <v>13.31386343586533</v>
+        <v>12.10230930540498</v>
       </c>
       <c r="D7">
-        <v>7.051503279671293</v>
+        <v>4.768396087842938</v>
       </c>
       <c r="E7">
-        <v>6.636630143987995</v>
+        <v>6.71072812140878</v>
       </c>
       <c r="F7">
-        <v>56.99474301499662</v>
+        <v>34.05169058679098</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>8.568921762744326</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>6.933469403644718</v>
       </c>
       <c r="M7">
-        <v>14.18936945221986</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>27.22082365021094</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.0409799631225</v>
+        <v>23.78860759664726</v>
       </c>
       <c r="C8">
-        <v>14.8080297529576</v>
+        <v>13.10829177136371</v>
       </c>
       <c r="D8">
-        <v>7.532013434272288</v>
+        <v>4.663995931296846</v>
       </c>
       <c r="E8">
-        <v>6.960184732989052</v>
+        <v>6.683272917165967</v>
       </c>
       <c r="F8">
-        <v>62.00434700749485</v>
+        <v>36.20151338410623</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>8.985498037922881</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>7.26009827205371</v>
       </c>
       <c r="M8">
-        <v>15.71466792316867</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>28.67381795492365</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.89250056226404</v>
+        <v>27.83478061620566</v>
       </c>
       <c r="C9">
-        <v>17.53167456387363</v>
+        <v>14.91662386980022</v>
       </c>
       <c r="D9">
-        <v>8.452099333076617</v>
+        <v>4.476074532933924</v>
       </c>
       <c r="E9">
-        <v>7.615465431280544</v>
+        <v>6.656620448404696</v>
       </c>
       <c r="F9">
-        <v>71.37561868977626</v>
+        <v>40.43074377350254</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>9.816636243537099</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>7.909382984284057</v>
       </c>
       <c r="M9">
-        <v>18.47893387648415</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>31.60291918460588</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.56483415375978</v>
+        <v>30.57094114351202</v>
       </c>
       <c r="C10">
-        <v>19.43439462388612</v>
+        <v>16.14917570644056</v>
       </c>
       <c r="D10">
-        <v>9.120241336469306</v>
+        <v>4.350510002489343</v>
       </c>
       <c r="E10">
-        <v>8.112100801049444</v>
+        <v>6.656044474672735</v>
       </c>
       <c r="F10">
-        <v>78.03079047551812</v>
+        <v>43.54048069170094</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>10.44015947741048</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>8.390080971052932</v>
       </c>
       <c r="M10">
-        <v>20.39541789827274</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>33.8018441256665</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.75561359173031</v>
+        <v>31.76829628153904</v>
       </c>
       <c r="C11">
-        <v>20.28637355337811</v>
+        <v>16.69046944384528</v>
       </c>
       <c r="D11">
-        <v>9.424531184944779</v>
+        <v>4.296799446048756</v>
       </c>
       <c r="E11">
-        <v>8.34248315655171</v>
+        <v>6.660515202879661</v>
       </c>
       <c r="F11">
-        <v>81.02592831877465</v>
+        <v>44.95698267282796</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>10.72826731198503</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>8.609507615513328</v>
       </c>
       <c r="M11">
-        <v>21.24911324308606</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>34.81358145021526</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>29.20392618283179</v>
+        <v>32.21528083123432</v>
       </c>
       <c r="C12">
-        <v>20.60785819522998</v>
+        <v>16.89280735011841</v>
       </c>
       <c r="D12">
-        <v>9.540047053104342</v>
+        <v>4.27702838358739</v>
       </c>
       <c r="E12">
-        <v>8.430513402912766</v>
+        <v>6.662945732091679</v>
       </c>
       <c r="F12">
-        <v>82.15752174598499</v>
+        <v>45.49392216041738</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>10.83821171605238</v>
+        <v>0</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>8.692725575395418</v>
       </c>
       <c r="M12">
-        <v>21.57047919912936</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>35.19856421453173</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>29.10747241236238</v>
+        <v>32.11929397719758</v>
       </c>
       <c r="C13">
-        <v>20.5386566334386</v>
+        <v>16.84934485009577</v>
       </c>
       <c r="D13">
-        <v>9.515151314637498</v>
+        <v>4.281259738925849</v>
       </c>
       <c r="E13">
-        <v>8.411516474797812</v>
+        <v>6.662388494427833</v>
       </c>
       <c r="F13">
-        <v>81.9138895300685</v>
+        <v>45.3782526360724</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>10.81449174227202</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>8.674797012253405</v>
       </c>
       <c r="M13">
-        <v>21.50133952939629</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>35.11556398168801</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.79254254307148</v>
+        <v>31.80519643041675</v>
       </c>
       <c r="C14">
-        <v>20.31283987778621</v>
+        <v>16.70716780053444</v>
       </c>
       <c r="D14">
-        <v>9.434027369182701</v>
+        <v>4.295160975122087</v>
       </c>
       <c r="E14">
-        <v>8.349708599662051</v>
+        <v>6.660700032854579</v>
       </c>
       <c r="F14">
-        <v>81.11906347217919</v>
+        <v>45.00114407356865</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>10.73729419148895</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>8.616351314807481</v>
       </c>
       <c r="M14">
-        <v>21.27558597012654</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>34.84521532161094</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.59933133716441</v>
+        <v>31.61197767980033</v>
       </c>
       <c r="C15">
-        <v>20.17439905667781</v>
+        <v>16.61974170034058</v>
       </c>
       <c r="D15">
-        <v>9.384382316734508</v>
+        <v>4.303752467850578</v>
       </c>
       <c r="E15">
-        <v>8.311957588787401</v>
+        <v>6.659763653875396</v>
       </c>
       <c r="F15">
-        <v>80.63194168664481</v>
+        <v>44.77023526379059</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.69012552121723</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>8.580568879486684</v>
       </c>
       <c r="M15">
-        <v>21.13707985534612</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>34.67986939223621</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.48659143423527</v>
+        <v>30.49176984976743</v>
       </c>
       <c r="C16">
-        <v>19.37850804978795</v>
+        <v>16.11342274828487</v>
       </c>
       <c r="D16">
-        <v>9.100381129347806</v>
+        <v>4.354094955213659</v>
       </c>
       <c r="E16">
-        <v>8.097146029599759</v>
+        <v>6.655852267945255</v>
       </c>
       <c r="F16">
-        <v>77.83456287087699</v>
+        <v>43.4479664691261</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10.42143663990979</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>8.37575714738883</v>
       </c>
       <c r="M16">
-        <v>20.33931847888326</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>33.73597082710365</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.79821648097081</v>
+        <v>29.79268803790379</v>
       </c>
       <c r="C17">
-        <v>18.8873023269742</v>
+        <v>15.79794173871971</v>
       </c>
       <c r="D17">
-        <v>8.926393967753041</v>
+        <v>4.385901462779572</v>
       </c>
       <c r="E17">
-        <v>7.96659830527639</v>
+        <v>6.654703560779011</v>
       </c>
       <c r="F17">
-        <v>76.11146469405158</v>
+        <v>42.63742354386298</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.25787267677581</v>
+        <v>0</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>8.250311330612503</v>
       </c>
       <c r="M17">
-        <v>19.84572770062182</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>33.15996888633823</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.39987134056299</v>
+        <v>29.38611339567369</v>
       </c>
       <c r="C18">
-        <v>18.6034384379502</v>
+        <v>15.61464850852083</v>
       </c>
       <c r="D18">
-        <v>8.826336251360017</v>
+        <v>4.404511020421296</v>
       </c>
       <c r="E18">
-        <v>7.891918986399393</v>
+        <v>6.654484567204764</v>
       </c>
       <c r="F18">
-        <v>75.11718774239129</v>
+        <v>42.17137148021921</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.16419973602235</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>8.1782270801622</v>
       </c>
       <c r="M18">
-        <v>19.56007248088677</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>32.82972519729383</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.26455831323898</v>
+        <v>29.24767382209107</v>
       </c>
       <c r="C19">
-        <v>18.50707564346177</v>
+        <v>15.55226896475443</v>
       </c>
       <c r="D19">
-        <v>8.792454822831427</v>
+        <v>4.41086396740095</v>
       </c>
       <c r="E19">
-        <v>7.866700273219254</v>
+        <v>6.654484647425986</v>
       </c>
       <c r="F19">
-        <v>74.77994024408093</v>
+        <v>42.01359423414901</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10.13254804107136</v>
+        <v>0</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>8.153832206755551</v>
       </c>
       <c r="M19">
-        <v>19.46303419533973</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>32.71808710989551</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.87173823568497</v>
+        <v>29.8675677025121</v>
       </c>
       <c r="C20">
-        <v>18.93972488364081</v>
+        <v>15.83171434361054</v>
       </c>
       <c r="D20">
-        <v>8.944912121891015</v>
+        <v>4.382482467838732</v>
       </c>
       <c r="E20">
-        <v>7.980452167027403</v>
+        <v>6.654779733973864</v>
       </c>
       <c r="F20">
-        <v>76.29520920892821</v>
+        <v>42.72369010937211</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.27524118753407</v>
+        <v>0</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>8.263658061215194</v>
       </c>
       <c r="M20">
-        <v>19.89844831505338</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>33.22117461627308</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.88510714155847</v>
+        <v>31.89762565568936</v>
       </c>
       <c r="C21">
-        <v>20.37919135355472</v>
+        <v>16.74899888509027</v>
       </c>
       <c r="D21">
-        <v>9.457845389899111</v>
+        <v>4.291061719679252</v>
       </c>
       <c r="E21">
-        <v>8.367840202681501</v>
+        <v>6.661175471679057</v>
       </c>
       <c r="F21">
-        <v>81.35257447074895</v>
+        <v>45.11189240509801</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>10.7599441321704</v>
+        <v>0</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>8.633514580426944</v>
       </c>
       <c r="M21">
-        <v>21.34194080518183</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>34.92457054792509</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>30.18636297818908</v>
+        <v>33.1871356146811</v>
       </c>
       <c r="C22">
-        <v>21.31382983518367</v>
+        <v>17.33321308400919</v>
       </c>
       <c r="D22">
-        <v>9.794918237884485</v>
+        <v>4.234673658993713</v>
       </c>
       <c r="E22">
-        <v>8.62573173511954</v>
+        <v>6.669685798285712</v>
       </c>
       <c r="F22">
-        <v>84.64410160063781</v>
+        <v>46.67611005395054</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>11.08179108672375</v>
+        <v>0</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>8.875993495499834</v>
       </c>
       <c r="M22">
-        <v>22.27465411693493</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>36.04885897088779</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.49281566896305</v>
+        <v>32.5021685817857</v>
       </c>
       <c r="C23">
-        <v>20.8152397141155</v>
+        <v>17.02274702903305</v>
       </c>
       <c r="D23">
-        <v>9.614750327448101</v>
+        <v>4.264430826309182</v>
       </c>
       <c r="E23">
-        <v>8.487595698887066</v>
+        <v>6.664726893256363</v>
       </c>
       <c r="F23">
-        <v>82.88777232684026</v>
+        <v>45.84081782084402</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>10.90946690954629</v>
+        <v>0</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>8.74649771572291</v>
       </c>
       <c r="M23">
-        <v>21.77755443532921</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>35.44769661044549</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.8385071853899</v>
+        <v>29.8337291588999</v>
       </c>
       <c r="C24">
-        <v>18.91602926205491</v>
+        <v>15.81645173718682</v>
       </c>
       <c r="D24">
-        <v>8.936540175433585</v>
+        <v>4.384027193231731</v>
       </c>
       <c r="E24">
-        <v>7.974187680698254</v>
+        <v>6.654743925390918</v>
       </c>
       <c r="F24">
-        <v>76.21214981351238</v>
+        <v>42.68468920105358</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.26738777014335</v>
+        <v>0</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>8.257623892524171</v>
       </c>
       <c r="M24">
-        <v>19.8746192418734</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>33.19350069394634</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.88089633622968</v>
+        <v>26.78293709236095</v>
       </c>
       <c r="C25">
-        <v>16.81438833555561</v>
+        <v>14.44468075664892</v>
       </c>
       <c r="D25">
-        <v>8.205109060115149</v>
+        <v>4.524912698713901</v>
       </c>
       <c r="E25">
-        <v>7.435800160436923</v>
+        <v>6.660682511505373</v>
       </c>
       <c r="F25">
-        <v>68.88537274499843</v>
+        <v>39.2861859162055</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>9.589946990472338</v>
+        <v>0</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>7.733018611656892</v>
       </c>
       <c r="M25">
-        <v>17.75318047399811</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>30.80240673651854</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_14/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_14/res_line/loading_percent.xlsx
@@ -421,40 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.37627107661445</v>
+        <v>12.36210925954404</v>
       </c>
       <c r="C2">
-        <v>13.36963614323071</v>
+        <v>7.216105280973356</v>
       </c>
       <c r="D2">
-        <v>4.636780390264086</v>
+        <v>2.771266550080199</v>
       </c>
       <c r="E2">
-        <v>6.67759112443094</v>
+        <v>5.706328552048697</v>
       </c>
       <c r="F2">
-        <v>36.78536816743892</v>
+        <v>47.95575489900856</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>4.251792669778333</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>34.12765037509629</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>6.474537253047612</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>11.10599294210875</v>
       </c>
       <c r="L2">
-        <v>7.349282331826294</v>
+        <v>6.675702223601722</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>10.13335377660123</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>29.0731116253815</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,40 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.64022848822767</v>
+        <v>11.78744468889904</v>
       </c>
       <c r="C3">
-        <v>12.59911302355305</v>
+        <v>6.705192438382908</v>
       </c>
       <c r="D3">
-        <v>4.716934313106491</v>
+        <v>2.767114660705075</v>
       </c>
       <c r="E3">
-        <v>6.696070023144427</v>
+        <v>5.72912477718558</v>
       </c>
       <c r="F3">
-        <v>35.093326064053</v>
+        <v>46.90026588654291</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>33.55432624274078</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>6.495415251642254</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>10.64920622668737</v>
       </c>
       <c r="L3">
-        <v>7.09135059577217</v>
+        <v>6.654083407997584</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>9.987762356490297</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>27.92123045399472</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,40 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.52111681726825</v>
+        <v>11.43067729096132</v>
       </c>
       <c r="C4">
-        <v>12.10507421170965</v>
+        <v>6.417543122502196</v>
       </c>
       <c r="D4">
-        <v>4.768110360212509</v>
+        <v>2.763950544274199</v>
       </c>
       <c r="E4">
-        <v>6.710640660589082</v>
+        <v>5.744368275888907</v>
       </c>
       <c r="F4">
-        <v>34.05737423016311</v>
+        <v>46.26199240466821</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>33.21044862429194</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>6.508932715287511</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>10.3679292251609</v>
       </c>
       <c r="L4">
-        <v>6.934328714951779</v>
+        <v>6.643773215530691</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>9.903842724275691</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>27.2246254595685</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,40 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.05152594526758</v>
+        <v>11.28452529997349</v>
       </c>
       <c r="C5">
-        <v>11.89847639849265</v>
+        <v>6.297894009466537</v>
       </c>
       <c r="D5">
-        <v>4.789436410942113</v>
+        <v>2.762507905076132</v>
       </c>
       <c r="E5">
-        <v>6.717356244074438</v>
+        <v>5.750891732272045</v>
       </c>
       <c r="F5">
-        <v>33.63630074251189</v>
+        <v>46.00448874262658</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>33.07238360821418</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>6.514617640499791</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>10.2532714705</v>
       </c>
       <c r="L5">
-        <v>6.870736097430593</v>
+        <v>6.640303494519734</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>9.871027768669913</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>26.94359641574751</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,40 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.97272819982835</v>
+        <v>11.26021761482705</v>
       </c>
       <c r="C6">
-        <v>11.8638527330819</v>
+        <v>6.27788220446242</v>
       </c>
       <c r="D6">
-        <v>4.793005498871024</v>
+        <v>2.76225913914555</v>
       </c>
       <c r="E6">
-        <v>6.718517424875832</v>
+        <v>5.751993717354781</v>
       </c>
       <c r="F6">
-        <v>33.5664587558235</v>
+        <v>45.96189133367486</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>33.04958347669149</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>6.515572299655716</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>10.23423579625373</v>
       </c>
       <c r="L6">
-        <v>6.860202230894882</v>
+        <v>6.639771148997394</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>9.865662539117869</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>26.89710891057579</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,40 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.51483879788816</v>
+        <v>11.4287090238997</v>
       </c>
       <c r="C7">
-        <v>12.10230930540498</v>
+        <v>6.415939217506575</v>
       </c>
       <c r="D7">
-        <v>4.768396087842938</v>
+        <v>2.763931707045885</v>
       </c>
       <c r="E7">
-        <v>6.71072812140878</v>
+        <v>5.74445499410106</v>
       </c>
       <c r="F7">
-        <v>34.05169058679098</v>
+        <v>46.25850892204947</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>33.20857823267973</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>6.509008668620689</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>10.36638281666386</v>
       </c>
       <c r="L7">
-        <v>6.933469403644718</v>
+        <v>6.643723476708346</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>9.903394563909687</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>27.22082365021094</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,40 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.78860759664726</v>
+        <v>12.16490064115215</v>
       </c>
       <c r="C8">
-        <v>13.10829177136371</v>
+        <v>7.041245429636247</v>
       </c>
       <c r="D8">
-        <v>4.663995931296846</v>
+        <v>2.76996344366432</v>
       </c>
       <c r="E8">
-        <v>6.683272917165967</v>
+        <v>5.713928804450612</v>
       </c>
       <c r="F8">
-        <v>36.20151338410623</v>
+        <v>47.58986628389194</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>33.92828907519763</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>6.481591585551996</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>10.94875540841111</v>
       </c>
       <c r="L8">
-        <v>7.26009827205371</v>
+        <v>6.667624798467115</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>10.08202223332588</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>28.67381795492365</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,40 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.83478061620566</v>
+        <v>13.56946782052094</v>
       </c>
       <c r="C9">
-        <v>14.91662386980022</v>
+        <v>8.243418563233684</v>
       </c>
       <c r="D9">
-        <v>4.476074532933924</v>
+        <v>2.776845906311525</v>
       </c>
       <c r="E9">
-        <v>6.656620448404696</v>
+        <v>5.664051790796702</v>
       </c>
       <c r="F9">
-        <v>40.43074377350254</v>
+        <v>50.27305866507713</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>35.40356497705512</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>6.433326480486472</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>12.07804971220695</v>
       </c>
       <c r="L9">
-        <v>7.909382984284057</v>
+        <v>6.738619914231164</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>10.4753901088121</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>31.60291918460588</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,40 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.57094114351202</v>
+        <v>14.56919209893243</v>
       </c>
       <c r="C10">
-        <v>16.14917570644056</v>
+        <v>9.05337719096033</v>
       </c>
       <c r="D10">
-        <v>4.350510002489343</v>
+        <v>2.778785907354604</v>
       </c>
       <c r="E10">
-        <v>6.656044474672735</v>
+        <v>5.633644015321026</v>
       </c>
       <c r="F10">
-        <v>43.54048069170094</v>
+        <v>52.28252939643865</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>36.52592102101205</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>6.401158604803317</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>12.89312136274335</v>
       </c>
       <c r="L10">
-        <v>8.390080971052932</v>
+        <v>6.806336790132796</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>10.79016984385113</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>33.8018441256665</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,40 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.76829628153904</v>
+        <v>15.01586368309473</v>
       </c>
       <c r="C11">
-        <v>16.69046944384528</v>
+        <v>9.406793043138251</v>
       </c>
       <c r="D11">
-        <v>4.296799446048756</v>
+        <v>2.778967397063377</v>
       </c>
       <c r="E11">
-        <v>6.660515202879661</v>
+        <v>5.621204463993685</v>
       </c>
       <c r="F11">
-        <v>44.95698267282796</v>
+        <v>53.20411475499838</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>37.04492082932416</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>6.387225433570753</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>13.25976138368998</v>
       </c>
       <c r="L11">
-        <v>8.609507615513328</v>
+        <v>6.840710062306529</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>10.93887652004975</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>34.81358145021526</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,40 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.21528083123432</v>
+        <v>15.1837848385243</v>
       </c>
       <c r="C12">
-        <v>16.89280735011841</v>
+        <v>9.538538106678633</v>
       </c>
       <c r="D12">
-        <v>4.27702838358739</v>
+        <v>2.778933161917779</v>
       </c>
       <c r="E12">
-        <v>6.662945732091679</v>
+        <v>5.616698123104464</v>
       </c>
       <c r="F12">
-        <v>45.49392216041738</v>
+        <v>53.55412996651134</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>37.24268271465392</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>6.382048768735316</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>13.41593051646183</v>
       </c>
       <c r="L12">
-        <v>8.692725575395418</v>
+        <v>6.854255608368064</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>10.99597491351953</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>35.19856421453173</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,40 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32.11929397719758</v>
+        <v>15.14767505828593</v>
       </c>
       <c r="C13">
-        <v>16.84934485009577</v>
+        <v>9.510255920860079</v>
       </c>
       <c r="D13">
-        <v>4.281259738925849</v>
+        <v>2.778945149922259</v>
       </c>
       <c r="E13">
-        <v>6.662388494427833</v>
+        <v>5.6176594922753</v>
       </c>
       <c r="F13">
-        <v>45.3782526360724</v>
+        <v>53.47870242001564</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>37.20003614531391</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>6.383159249070138</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>13.37653526833481</v>
       </c>
       <c r="L13">
-        <v>8.674797012253405</v>
+        <v>6.851314535215786</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>10.98364283832345</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>35.11556398168801</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,40 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.80519643041675</v>
+        <v>15.02970341312644</v>
       </c>
       <c r="C14">
-        <v>16.70716780053444</v>
+        <v>9.417673127625021</v>
       </c>
       <c r="D14">
-        <v>4.295160975122087</v>
+        <v>2.778966656796039</v>
       </c>
       <c r="E14">
-        <v>6.660700032854579</v>
+        <v>5.620829606885294</v>
       </c>
       <c r="F14">
-        <v>45.00114407356865</v>
+        <v>53.23289018898429</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>37.06116607102803</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>6.386797558541605</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>13.27114358782323</v>
       </c>
       <c r="L14">
-        <v>8.616351314807481</v>
+        <v>6.84181376319539</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>10.9435583016269</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>34.84521532161094</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,40 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.61197767980033</v>
+        <v>14.95728177975281</v>
       </c>
       <c r="C15">
-        <v>16.61974170034058</v>
+        <v>9.360694251502972</v>
       </c>
       <c r="D15">
-        <v>4.303752467850578</v>
+        <v>2.778966355767829</v>
       </c>
       <c r="E15">
-        <v>6.659763653875396</v>
+        <v>5.622798117822335</v>
       </c>
       <c r="F15">
-        <v>44.77023526379059</v>
+        <v>53.08245661742497</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>36.97626474681647</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>6.389039053455138</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>13.21159631221412</v>
       </c>
       <c r="L15">
-        <v>8.580568879486684</v>
+        <v>6.836063664157447</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>10.91910765320304</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>34.67986939223621</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,40 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.49176984976743</v>
+        <v>14.5398323261255</v>
       </c>
       <c r="C16">
-        <v>16.11342274828487</v>
+        <v>9.029984414543756</v>
       </c>
       <c r="D16">
-        <v>4.354094955213659</v>
+        <v>2.778759758774163</v>
       </c>
       <c r="E16">
-        <v>6.655852267945255</v>
+        <v>5.634485325629174</v>
       </c>
       <c r="F16">
-        <v>43.4479664691261</v>
+        <v>52.22244749877002</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>36.49217385138622</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>6.402083162220407</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>12.86907219809401</v>
       </c>
       <c r="L16">
-        <v>8.37575714738883</v>
+        <v>6.804163571146478</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>10.78056182091803</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>33.73597082710365</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,40 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.79268803790379</v>
+        <v>14.28161388752119</v>
       </c>
       <c r="C17">
-        <v>15.79794173871971</v>
+        <v>8.823305284063268</v>
       </c>
       <c r="D17">
-        <v>4.385901462779572</v>
+        <v>2.778451974910677</v>
       </c>
       <c r="E17">
-        <v>6.654703560779011</v>
+        <v>5.642014487671123</v>
       </c>
       <c r="F17">
-        <v>42.63742354386298</v>
+        <v>51.69673196060016</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>36.19736638619965</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>6.410263829634657</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>12.65783927017209</v>
       </c>
       <c r="L17">
-        <v>8.250311330612503</v>
+        <v>6.785519000646239</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>10.69697475088949</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>33.15996888633823</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,40 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.38611339567369</v>
+        <v>14.13233193755073</v>
       </c>
       <c r="C18">
-        <v>15.61464850852083</v>
+        <v>8.703008433914151</v>
       </c>
       <c r="D18">
-        <v>4.404511020421296</v>
+        <v>2.778209098592813</v>
       </c>
       <c r="E18">
-        <v>6.654484567204764</v>
+        <v>5.646475924213588</v>
       </c>
       <c r="F18">
-        <v>42.17137148021921</v>
+        <v>51.39505789318422</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>36.02859314171516</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>6.415035109085257</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>12.53595571076223</v>
       </c>
       <c r="L18">
-        <v>8.1782270801622</v>
+        <v>6.775130025535966</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>10.64941668641833</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>32.82972519729383</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,40 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.24767382209107</v>
+        <v>14.08165906191445</v>
       </c>
       <c r="C19">
-        <v>15.55226896475443</v>
+        <v>8.662031797230695</v>
       </c>
       <c r="D19">
-        <v>4.41086396740095</v>
+        <v>2.778115619160425</v>
       </c>
       <c r="E19">
-        <v>6.654484647425986</v>
+        <v>5.648008854265775</v>
       </c>
       <c r="F19">
-        <v>42.01359423414901</v>
+        <v>51.29303889716551</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>35.97158525225201</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>6.416661947684088</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>12.4946233926254</v>
       </c>
       <c r="L19">
-        <v>8.153832206755551</v>
+        <v>6.771669540803529</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>10.63340372352252</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>32.71808710989551</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,40 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.8675677025121</v>
+        <v>14.30918100463528</v>
       </c>
       <c r="C20">
-        <v>15.83171434361054</v>
+        <v>8.84545311188146</v>
       </c>
       <c r="D20">
-        <v>4.382482467838732</v>
+        <v>2.778491569172916</v>
       </c>
       <c r="E20">
-        <v>6.654779733973864</v>
+        <v>5.641199425043855</v>
       </c>
       <c r="F20">
-        <v>42.72369010937211</v>
+        <v>51.75262286756271</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>36.22866708916385</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>6.409386163486736</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>12.680365986727</v>
       </c>
       <c r="L20">
-        <v>8.263658061215194</v>
+        <v>6.787468974196662</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>10.70581907723733</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>33.22117461627308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,40 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.89762565568936</v>
+        <v>15.06438807657596</v>
       </c>
       <c r="C21">
-        <v>16.74899888509027</v>
+        <v>9.44492290091558</v>
       </c>
       <c r="D21">
-        <v>4.291061719679252</v>
+        <v>2.778963151828411</v>
       </c>
       <c r="E21">
-        <v>6.661175471679057</v>
+        <v>5.619892890337034</v>
       </c>
       <c r="F21">
-        <v>45.11189240509801</v>
+        <v>53.30506340563183</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>37.10192206015164</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>6.385726207421921</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>13.2996749679654</v>
       </c>
       <c r="L21">
-        <v>8.633514580426944</v>
+        <v>6.844589877921081</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>10.95531079102948</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>34.92457054792509</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,40 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>33.1871356146811</v>
+        <v>15.55081987529444</v>
       </c>
       <c r="C22">
-        <v>17.33321308400919</v>
+        <v>9.82459402099901</v>
       </c>
       <c r="D22">
-        <v>4.234673658993713</v>
+        <v>2.778670135023623</v>
       </c>
       <c r="E22">
-        <v>6.669685798285712</v>
+        <v>5.607160554275827</v>
       </c>
       <c r="F22">
-        <v>46.67611005395054</v>
+        <v>54.32568547602086</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>37.67981993796843</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>6.370842565061142</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>13.81414899576366</v>
       </c>
       <c r="L22">
-        <v>8.875993495499834</v>
+        <v>6.885013996470983</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>11.12295166873834</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>36.04885897088779</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,40 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.5021685817857</v>
+        <v>15.29186721427809</v>
       </c>
       <c r="C23">
-        <v>17.02274702903305</v>
+        <v>9.623037867271961</v>
       </c>
       <c r="D23">
-        <v>4.264430826309182</v>
+        <v>2.778882279042383</v>
       </c>
       <c r="E23">
-        <v>6.664726893256363</v>
+        <v>5.613845473403605</v>
       </c>
       <c r="F23">
-        <v>45.84081782084402</v>
+        <v>53.78041574350311</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>37.37071951671185</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>6.378733624955621</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>13.53360809584431</v>
       </c>
       <c r="L23">
-        <v>8.74649771572291</v>
+        <v>6.86315041232349</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>11.03306025855379</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>35.44769661044549</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,40 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.8337291588999</v>
+        <v>14.29672048758273</v>
       </c>
       <c r="C24">
-        <v>15.81645173718682</v>
+        <v>8.835444676637065</v>
       </c>
       <c r="D24">
-        <v>4.384027193231731</v>
+        <v>2.778473873795166</v>
       </c>
       <c r="E24">
-        <v>6.654743925390918</v>
+        <v>5.641567501439221</v>
       </c>
       <c r="F24">
-        <v>42.68468920105358</v>
+        <v>51.72735281938121</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>36.21451381368207</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>6.409782744134715</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>12.67018303350687</v>
       </c>
       <c r="L24">
-        <v>8.257623892524171</v>
+        <v>6.78658636436051</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>10.70181900793224</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>33.19350069394634</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,40 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.78293709236095</v>
+        <v>13.19466604980931</v>
       </c>
       <c r="C25">
-        <v>14.44468075664892</v>
+        <v>7.931336839493721</v>
       </c>
       <c r="D25">
-        <v>4.524912698713901</v>
+        <v>2.775523531849576</v>
       </c>
       <c r="E25">
-        <v>6.660682511505373</v>
+        <v>5.676461610702385</v>
       </c>
       <c r="F25">
-        <v>39.2861859162055</v>
+        <v>49.54011633353183</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>34.99769322229724</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>6.445800726879271</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>11.77470285418518</v>
       </c>
       <c r="L25">
-        <v>7.733018611656892</v>
+        <v>6.716744087285728</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>10.36441156997855</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>30.80240673651854</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_14/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_14/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.36210925954404</v>
+        <v>17.27400121132155</v>
       </c>
       <c r="C2">
-        <v>7.216105280973356</v>
+        <v>6.210456982042622</v>
       </c>
       <c r="D2">
-        <v>2.771266550080199</v>
+        <v>3.429573696358183</v>
       </c>
       <c r="E2">
-        <v>5.706328552048697</v>
+        <v>10.36743954896778</v>
       </c>
       <c r="F2">
-        <v>47.95575489900856</v>
+        <v>58.69465117415592</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I2">
-        <v>34.12765037509629</v>
+        <v>42.75315948101495</v>
       </c>
       <c r="J2">
-        <v>6.474537253047612</v>
+        <v>10.42460092597672</v>
       </c>
       <c r="K2">
-        <v>11.10599294210875</v>
+        <v>15.86322915611633</v>
       </c>
       <c r="L2">
-        <v>6.675702223601722</v>
+        <v>11.72837058400516</v>
       </c>
       <c r="M2">
-        <v>10.13335377660123</v>
+        <v>17.62854016503052</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.78744468889904</v>
+        <v>17.2483593757087</v>
       </c>
       <c r="C3">
-        <v>6.705192438382908</v>
+        <v>6.094336099605031</v>
       </c>
       <c r="D3">
-        <v>2.767114660705075</v>
+        <v>3.441385103338726</v>
       </c>
       <c r="E3">
-        <v>5.72912477718558</v>
+        <v>10.38405863763118</v>
       </c>
       <c r="F3">
-        <v>46.90026588654291</v>
+        <v>58.51140703389682</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I3">
-        <v>33.55432624274078</v>
+        <v>42.65336659491704</v>
       </c>
       <c r="J3">
-        <v>6.495415251642254</v>
+        <v>10.43262268719585</v>
       </c>
       <c r="K3">
-        <v>10.64920622668737</v>
+        <v>15.84653044710402</v>
       </c>
       <c r="L3">
-        <v>6.654083407997584</v>
+        <v>11.75000770832539</v>
       </c>
       <c r="M3">
-        <v>9.987762356490297</v>
+        <v>17.65987514556375</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.43067729096132</v>
+        <v>17.23751755836745</v>
       </c>
       <c r="C4">
-        <v>6.417543122502196</v>
+        <v>6.023962917165669</v>
       </c>
       <c r="D4">
-        <v>2.763950544274199</v>
+        <v>3.449260142005088</v>
       </c>
       <c r="E4">
-        <v>5.744368275888907</v>
+        <v>10.39496118729545</v>
       </c>
       <c r="F4">
-        <v>46.26199240466821</v>
+        <v>58.40547193871022</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I4">
-        <v>33.21044862429194</v>
+        <v>42.59598130303169</v>
       </c>
       <c r="J4">
-        <v>6.508932715287511</v>
+        <v>10.43789362703449</v>
       </c>
       <c r="K4">
-        <v>10.3679292251609</v>
+        <v>15.84037225040131</v>
       </c>
       <c r="L4">
-        <v>6.643773215530691</v>
+        <v>11.76472790485023</v>
       </c>
       <c r="M4">
-        <v>9.903842724275691</v>
+        <v>17.68216696656829</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.28452529997349</v>
+        <v>17.23433732991727</v>
       </c>
       <c r="C5">
-        <v>6.297894009466537</v>
+        <v>5.995561236524315</v>
       </c>
       <c r="D5">
-        <v>2.762507905076132</v>
+        <v>3.452625987723626</v>
       </c>
       <c r="E5">
-        <v>5.750891732272045</v>
+        <v>10.39958015578754</v>
       </c>
       <c r="F5">
-        <v>46.00448874262658</v>
+        <v>58.36397429323856</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I5">
-        <v>33.07238360821418</v>
+        <v>42.57358143914733</v>
       </c>
       <c r="J5">
-        <v>6.514617640499791</v>
+        <v>10.44012868122948</v>
       </c>
       <c r="K5">
-        <v>10.2532714705</v>
+        <v>15.83889566593772</v>
       </c>
       <c r="L5">
-        <v>6.640303494519734</v>
+        <v>11.77108772213484</v>
       </c>
       <c r="M5">
-        <v>9.871027768669913</v>
+        <v>17.69201876254461</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.26021761482705</v>
+        <v>17.23388414955377</v>
       </c>
       <c r="C6">
-        <v>6.27788220446242</v>
+        <v>5.990863088342143</v>
       </c>
       <c r="D6">
-        <v>2.76225913914555</v>
+        <v>3.453194351241379</v>
       </c>
       <c r="E6">
-        <v>5.751993717354781</v>
+        <v>10.40035778165114</v>
       </c>
       <c r="F6">
-        <v>45.96189133367486</v>
+        <v>58.35718510085037</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I6">
-        <v>33.04958347669149</v>
+        <v>42.56992166096047</v>
       </c>
       <c r="J6">
-        <v>6.515572299655716</v>
+        <v>10.44050507737529</v>
       </c>
       <c r="K6">
-        <v>10.23423579625373</v>
+        <v>15.83871294526413</v>
       </c>
       <c r="L6">
-        <v>6.639771148997394</v>
+        <v>11.77216559296541</v>
       </c>
       <c r="M6">
-        <v>9.865662539117869</v>
+        <v>17.69370101781984</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.4287090238997</v>
+        <v>17.23746965055301</v>
       </c>
       <c r="C7">
-        <v>6.415939217506575</v>
+        <v>6.023578707734196</v>
       </c>
       <c r="D7">
-        <v>2.763931707045885</v>
+        <v>3.449304900350139</v>
       </c>
       <c r="E7">
-        <v>5.74445499410106</v>
+        <v>10.39502276668645</v>
       </c>
       <c r="F7">
-        <v>46.25850892204947</v>
+        <v>58.40490549582012</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I7">
-        <v>33.20857823267973</v>
+        <v>42.5956752127389</v>
       </c>
       <c r="J7">
-        <v>6.509008668620689</v>
+        <v>10.43792341679516</v>
       </c>
       <c r="K7">
-        <v>10.36638281666386</v>
+        <v>15.8403481507212</v>
       </c>
       <c r="L7">
-        <v>6.643723476708346</v>
+        <v>11.76481221250076</v>
       </c>
       <c r="M7">
-        <v>9.903394563909687</v>
+        <v>17.6822967227262</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.16490064115215</v>
+        <v>17.26414585971584</v>
       </c>
       <c r="C8">
-        <v>7.041245429636247</v>
+        <v>6.170252342280424</v>
       </c>
       <c r="D8">
-        <v>2.76996344366432</v>
+        <v>3.433517069753438</v>
       </c>
       <c r="E8">
-        <v>5.713928804450612</v>
+        <v>10.37302515530144</v>
       </c>
       <c r="F8">
-        <v>47.58986628389194</v>
+        <v>58.63011452670139</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I8">
-        <v>33.92828907519763</v>
+        <v>42.71794860964961</v>
       </c>
       <c r="J8">
-        <v>6.481591585551996</v>
+        <v>10.4272952392535</v>
       </c>
       <c r="K8">
-        <v>10.94875540841111</v>
+        <v>15.85662373624082</v>
       </c>
       <c r="L8">
-        <v>6.667624798467115</v>
+        <v>11.73553348978027</v>
       </c>
       <c r="M8">
-        <v>10.08202223332588</v>
+        <v>17.63871119637766</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.56946782052094</v>
+        <v>17.35507739569234</v>
       </c>
       <c r="C9">
-        <v>8.243418563233684</v>
+        <v>6.463332278339324</v>
       </c>
       <c r="D9">
-        <v>2.776845906311525</v>
+        <v>3.407494370419141</v>
       </c>
       <c r="E9">
-        <v>5.664051790796702</v>
+        <v>10.33540756791377</v>
       </c>
       <c r="F9">
-        <v>50.27305866507713</v>
+        <v>59.12310140208078</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I9">
-        <v>35.40356497705512</v>
+        <v>42.98822675007965</v>
       </c>
       <c r="J9">
-        <v>6.433326480486472</v>
+        <v>10.40918564381841</v>
       </c>
       <c r="K9">
-        <v>12.07804971220695</v>
+        <v>15.92085323074484</v>
       </c>
       <c r="L9">
-        <v>6.738619914231164</v>
+        <v>11.68948583016178</v>
       </c>
       <c r="M9">
-        <v>10.4753901088121</v>
+        <v>17.57744292963112</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.56919209893243</v>
+        <v>17.4449801789347</v>
       </c>
       <c r="C10">
-        <v>9.05337719096033</v>
+        <v>6.67949748595061</v>
       </c>
       <c r="D10">
-        <v>2.778785907354604</v>
+        <v>3.391379461507019</v>
       </c>
       <c r="E10">
-        <v>5.633644015321026</v>
+        <v>10.31110540338143</v>
       </c>
       <c r="F10">
-        <v>52.28252939643865</v>
+        <v>59.5154045476521</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I10">
-        <v>36.52592102101205</v>
+        <v>43.2048962935949</v>
       </c>
       <c r="J10">
-        <v>6.401158604803317</v>
+        <v>10.3975331151283</v>
       </c>
       <c r="K10">
-        <v>12.89312136274335</v>
+        <v>15.98745150769691</v>
       </c>
       <c r="L10">
-        <v>6.806336790132796</v>
+        <v>11.66256086518133</v>
       </c>
       <c r="M10">
-        <v>10.79016984385113</v>
+        <v>17.54716116971187</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.01586368309473</v>
+        <v>17.490774906098</v>
       </c>
       <c r="C11">
-        <v>9.406793043138251</v>
+        <v>6.777515173490927</v>
       </c>
       <c r="D11">
-        <v>2.778967397063377</v>
+        <v>3.384699404859306</v>
       </c>
       <c r="E11">
-        <v>5.621204463993685</v>
+        <v>10.30076777075299</v>
       </c>
       <c r="F11">
-        <v>53.20411475499838</v>
+        <v>59.70012591172854</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I11">
-        <v>37.04492082932416</v>
+        <v>43.30727481102819</v>
       </c>
       <c r="J11">
-        <v>6.387225433570753</v>
+        <v>10.39258816344296</v>
       </c>
       <c r="K11">
-        <v>13.25976138368998</v>
+        <v>16.02188424569288</v>
       </c>
       <c r="L11">
-        <v>6.840710062306529</v>
+        <v>11.65180628615554</v>
       </c>
       <c r="M11">
-        <v>10.93887652004975</v>
+        <v>17.53657695256803</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.1837848385243</v>
+        <v>17.50880861860662</v>
       </c>
       <c r="C12">
-        <v>9.538538106678633</v>
+        <v>6.814546539023239</v>
       </c>
       <c r="D12">
-        <v>2.778933161917779</v>
+        <v>3.382263314226873</v>
       </c>
       <c r="E12">
-        <v>5.616698123104464</v>
+        <v>10.29695587723512</v>
       </c>
       <c r="F12">
-        <v>53.55412996651134</v>
+        <v>59.77094877830014</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I12">
-        <v>37.24268271465392</v>
+        <v>43.34657993512298</v>
       </c>
       <c r="J12">
-        <v>6.382048768735316</v>
+        <v>10.39076659405812</v>
       </c>
       <c r="K12">
-        <v>13.41593051646183</v>
+        <v>16.03550990821593</v>
       </c>
       <c r="L12">
-        <v>6.854255608368064</v>
+        <v>11.64794813338449</v>
       </c>
       <c r="M12">
-        <v>10.99597491351953</v>
+        <v>17.53302701422131</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.14767505828593</v>
+        <v>17.50489415074433</v>
       </c>
       <c r="C13">
-        <v>9.510255920860079</v>
+        <v>6.806575608019083</v>
       </c>
       <c r="D13">
-        <v>2.778945149922259</v>
+        <v>3.382783812509389</v>
       </c>
       <c r="E13">
-        <v>5.6176594922753</v>
+        <v>10.29777227410158</v>
       </c>
       <c r="F13">
-        <v>53.47870242001564</v>
+        <v>59.75565743404606</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I13">
-        <v>37.20003614531391</v>
+        <v>43.33809120436423</v>
       </c>
       <c r="J13">
-        <v>6.383159249070138</v>
+        <v>10.39115663748633</v>
       </c>
       <c r="K13">
-        <v>13.37653526833481</v>
+        <v>16.03254942098219</v>
       </c>
       <c r="L13">
-        <v>6.851314535215786</v>
+        <v>11.64876952825333</v>
       </c>
       <c r="M13">
-        <v>10.98364283832345</v>
+        <v>17.53377119819427</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.02970341312644</v>
+        <v>17.49224474945866</v>
       </c>
       <c r="C14">
-        <v>9.417673127625021</v>
+        <v>6.78056370944168</v>
       </c>
       <c r="D14">
-        <v>2.778966656796039</v>
+        <v>3.384497112692897</v>
       </c>
       <c r="E14">
-        <v>5.620829606885294</v>
+        <v>10.30045210734183</v>
       </c>
       <c r="F14">
-        <v>53.23289018898429</v>
+        <v>59.70593521884729</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I14">
-        <v>37.06116607102803</v>
+        <v>43.31049778346834</v>
       </c>
       <c r="J14">
-        <v>6.386797558541605</v>
+        <v>10.39243728129044</v>
       </c>
       <c r="K14">
-        <v>13.27114358782323</v>
+        <v>16.0229935276169</v>
       </c>
       <c r="L14">
-        <v>6.84181376319539</v>
+        <v>11.65148457974073</v>
       </c>
       <c r="M14">
-        <v>10.9435583016269</v>
+        <v>17.53627572158538</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.95728177975281</v>
+        <v>17.48458640183351</v>
       </c>
       <c r="C15">
-        <v>9.360694251502972</v>
+        <v>6.764618335021066</v>
       </c>
       <c r="D15">
-        <v>2.778966355767829</v>
+        <v>3.385558733194839</v>
       </c>
       <c r="E15">
-        <v>5.622798117822335</v>
+        <v>10.30210694988452</v>
       </c>
       <c r="F15">
-        <v>53.08245661742497</v>
+        <v>59.6755917685332</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I15">
-        <v>36.97626474681647</v>
+        <v>43.29366553325006</v>
       </c>
       <c r="J15">
-        <v>6.389039053455138</v>
+        <v>10.39322834553202</v>
       </c>
       <c r="K15">
-        <v>13.21159631221412</v>
+        <v>16.01721642165654</v>
       </c>
       <c r="L15">
-        <v>6.836063664157447</v>
+        <v>11.65317553198787</v>
       </c>
       <c r="M15">
-        <v>10.91910765320304</v>
+        <v>17.53786944319823</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.5398323261255</v>
+        <v>17.44208493367594</v>
       </c>
       <c r="C16">
-        <v>9.029984414543756</v>
+        <v>6.673081939490817</v>
       </c>
       <c r="D16">
-        <v>2.778759758774163</v>
+        <v>3.391829106863296</v>
       </c>
       <c r="E16">
-        <v>5.634485325629174</v>
+        <v>10.31179539324971</v>
       </c>
       <c r="F16">
-        <v>52.22244749877002</v>
+        <v>59.50345624164369</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I16">
-        <v>36.49217385138622</v>
+        <v>43.19828136973982</v>
       </c>
       <c r="J16">
-        <v>6.402083162220407</v>
+        <v>10.39786342326212</v>
       </c>
       <c r="K16">
-        <v>12.86907219809401</v>
+        <v>15.9852838134668</v>
       </c>
       <c r="L16">
-        <v>6.804163571146478</v>
+        <v>11.66329372403579</v>
       </c>
       <c r="M16">
-        <v>10.78056182091803</v>
+        <v>17.54791702097949</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.28161388752119</v>
+        <v>17.41725782195046</v>
       </c>
       <c r="C17">
-        <v>8.823305284063268</v>
+        <v>6.616816928572092</v>
       </c>
       <c r="D17">
-        <v>2.778451974910677</v>
+        <v>3.3958423894432</v>
       </c>
       <c r="E17">
-        <v>5.642014487671123</v>
+        <v>10.31792240659411</v>
       </c>
       <c r="F17">
-        <v>51.69673196060016</v>
+        <v>59.39944111234872</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I17">
-        <v>36.19736638619965</v>
+        <v>43.14073497908582</v>
       </c>
       <c r="J17">
-        <v>6.410263829634657</v>
+        <v>10.40079789517534</v>
       </c>
       <c r="K17">
-        <v>12.65783927017209</v>
+        <v>15.96674819989636</v>
       </c>
       <c r="L17">
-        <v>6.785519000646239</v>
+        <v>11.66988319060018</v>
       </c>
       <c r="M17">
-        <v>10.69697475088949</v>
+        <v>17.55489767630952</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.13233193755073</v>
+        <v>17.4034396880505</v>
       </c>
       <c r="C18">
-        <v>8.703008433914151</v>
+        <v>6.584427242369308</v>
       </c>
       <c r="D18">
-        <v>2.778209098592813</v>
+        <v>3.398211974221178</v>
       </c>
       <c r="E18">
-        <v>5.646475924213588</v>
+        <v>10.3215140672376</v>
       </c>
       <c r="F18">
-        <v>51.39505789318422</v>
+        <v>59.34020536981552</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I18">
-        <v>36.02859314171516</v>
+        <v>43.10799560615986</v>
       </c>
       <c r="J18">
-        <v>6.415035109085257</v>
+        <v>10.40251923081239</v>
       </c>
       <c r="K18">
-        <v>12.53595571076223</v>
+        <v>15.95647692356764</v>
       </c>
       <c r="L18">
-        <v>6.775130025535966</v>
+        <v>11.67381390015901</v>
       </c>
       <c r="M18">
-        <v>10.64941668641833</v>
+        <v>17.55921318333104</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.08165906191445</v>
+        <v>17.39884076222009</v>
       </c>
       <c r="C19">
-        <v>8.662031797230695</v>
+        <v>6.573457177824367</v>
       </c>
       <c r="D19">
-        <v>2.778115619160425</v>
+        <v>3.399024796810997</v>
       </c>
       <c r="E19">
-        <v>5.648008854265775</v>
+        <v>10.32274175951849</v>
       </c>
       <c r="F19">
-        <v>51.29303889716551</v>
+        <v>59.32025148493758</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I19">
-        <v>35.97158525225201</v>
+        <v>43.09697276356895</v>
       </c>
       <c r="J19">
-        <v>6.416661947684088</v>
+        <v>10.40310780590636</v>
       </c>
       <c r="K19">
-        <v>12.4946233926254</v>
+        <v>15.95306644975152</v>
       </c>
       <c r="L19">
-        <v>6.771669540803529</v>
+        <v>11.67516893553048</v>
       </c>
       <c r="M19">
-        <v>10.63340372352252</v>
+        <v>17.56072595927922</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.30918100463528</v>
+        <v>17.41985300312341</v>
       </c>
       <c r="C20">
-        <v>8.84545311188146</v>
+        <v>6.622809582802653</v>
       </c>
       <c r="D20">
-        <v>2.778491569172916</v>
+        <v>3.395408829928685</v>
       </c>
       <c r="E20">
-        <v>5.641199425043855</v>
+        <v>10.31726318607172</v>
       </c>
       <c r="F20">
-        <v>51.75262286756271</v>
+        <v>59.41045272742952</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I20">
-        <v>36.22866708916385</v>
+        <v>43.14682373796516</v>
       </c>
       <c r="J20">
-        <v>6.409386163486736</v>
+        <v>10.40048204939122</v>
       </c>
       <c r="K20">
-        <v>12.680365986727</v>
+        <v>15.96868104894801</v>
       </c>
       <c r="L20">
-        <v>6.787468974196662</v>
+        <v>11.66916717971479</v>
       </c>
       <c r="M20">
-        <v>10.70581907723733</v>
+        <v>17.55412348678646</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.06438807657596</v>
+        <v>17.49594149893275</v>
       </c>
       <c r="C21">
-        <v>9.44492290091558</v>
+        <v>6.788206674344598</v>
       </c>
       <c r="D21">
-        <v>2.778963151828411</v>
+        <v>3.38399133783211</v>
       </c>
       <c r="E21">
-        <v>5.619892890337034</v>
+        <v>10.29966219040261</v>
       </c>
       <c r="F21">
-        <v>53.30506340563183</v>
+        <v>59.72051637314711</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I21">
-        <v>37.10192206015164</v>
+        <v>43.31858817496087</v>
       </c>
       <c r="J21">
-        <v>6.385726207421921</v>
+        <v>10.39205974320742</v>
       </c>
       <c r="K21">
-        <v>13.2996749679654</v>
+        <v>16.02578447020932</v>
       </c>
       <c r="L21">
-        <v>6.844589877921081</v>
+        <v>11.65068128874757</v>
       </c>
       <c r="M21">
-        <v>10.95531079102948</v>
+        <v>17.53552765740852</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.55081987529444</v>
+        <v>17.54969834477552</v>
       </c>
       <c r="C22">
-        <v>9.82459402099901</v>
+        <v>6.895785833737525</v>
       </c>
       <c r="D22">
-        <v>2.778670135023623</v>
+        <v>3.377074314416327</v>
       </c>
       <c r="E22">
-        <v>5.607160554275827</v>
+        <v>10.28875758978376</v>
       </c>
       <c r="F22">
-        <v>54.32568547602086</v>
+        <v>59.92823520880135</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I22">
-        <v>37.67981993796843</v>
+        <v>43.43396791521268</v>
       </c>
       <c r="J22">
-        <v>6.370842565061142</v>
+        <v>10.38685232054133</v>
       </c>
       <c r="K22">
-        <v>13.81414899576366</v>
+        <v>16.06652045058882</v>
       </c>
       <c r="L22">
-        <v>6.885013996470983</v>
+        <v>11.63984901017574</v>
       </c>
       <c r="M22">
-        <v>11.12295166873834</v>
+        <v>17.52604374948139</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.29186721427809</v>
+        <v>17.52064292510169</v>
       </c>
       <c r="C23">
-        <v>9.623037867271961</v>
+        <v>6.838428937066071</v>
       </c>
       <c r="D23">
-        <v>2.778882279042383</v>
+        <v>3.380716218158277</v>
       </c>
       <c r="E23">
-        <v>5.613845473403605</v>
+        <v>10.29452294610883</v>
       </c>
       <c r="F23">
-        <v>53.78041574350311</v>
+        <v>59.81691682760221</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I23">
-        <v>37.37071951671185</v>
+        <v>43.37210603590744</v>
       </c>
       <c r="J23">
-        <v>6.378733624955621</v>
+        <v>10.38960450421795</v>
       </c>
       <c r="K23">
-        <v>13.53360809584431</v>
+        <v>16.04446925705941</v>
       </c>
       <c r="L23">
-        <v>6.86315041232349</v>
+        <v>11.64551623279456</v>
       </c>
       <c r="M23">
-        <v>11.03306025855379</v>
+        <v>17.53086152720588</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.29672048758273</v>
+        <v>17.41867830255293</v>
       </c>
       <c r="C24">
-        <v>8.835444676637065</v>
+        <v>6.620100432135024</v>
       </c>
       <c r="D24">
-        <v>2.778473873795166</v>
+        <v>3.395604648155012</v>
       </c>
       <c r="E24">
-        <v>5.641567501439221</v>
+        <v>10.31756100422241</v>
       </c>
       <c r="F24">
-        <v>51.72735281938121</v>
+        <v>59.40547261734839</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I24">
-        <v>36.21451381368207</v>
+        <v>43.14406993496139</v>
       </c>
       <c r="J24">
-        <v>6.409782744134715</v>
+        <v>10.40062473651132</v>
       </c>
       <c r="K24">
-        <v>12.67018303350687</v>
+        <v>15.96780600771604</v>
       </c>
       <c r="L24">
-        <v>6.78658636436051</v>
+        <v>11.6694904448303</v>
       </c>
       <c r="M24">
-        <v>10.70181900793224</v>
+        <v>17.55447255634995</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.19466604980931</v>
+        <v>17.32638519142507</v>
       </c>
       <c r="C25">
-        <v>7.931336839493721</v>
+        <v>6.383723089846399</v>
       </c>
       <c r="D25">
-        <v>2.775523531849576</v>
+        <v>3.414006243167162</v>
       </c>
       <c r="E25">
-        <v>5.676461610702385</v>
+        <v>10.34499626285973</v>
       </c>
       <c r="F25">
-        <v>49.54011633353183</v>
+        <v>58.98435577580348</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I25">
-        <v>34.99769322229724</v>
+        <v>42.91189267283754</v>
       </c>
       <c r="J25">
-        <v>6.445800726879271</v>
+        <v>10.41379361887622</v>
       </c>
       <c r="K25">
-        <v>11.77470285418518</v>
+        <v>15.90004473747404</v>
       </c>
       <c r="L25">
-        <v>6.716744087285728</v>
+        <v>11.70072834054314</v>
       </c>
       <c r="M25">
-        <v>10.36441156997855</v>
+        <v>17.591428387428</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_14/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_14/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.27400121132155</v>
+        <v>12.36210925954401</v>
       </c>
       <c r="C2">
-        <v>6.210456982042622</v>
+        <v>7.216105280973125</v>
       </c>
       <c r="D2">
-        <v>3.429573696358183</v>
+        <v>2.771266550080469</v>
       </c>
       <c r="E2">
-        <v>10.36743954896778</v>
+        <v>5.706328552048631</v>
       </c>
       <c r="F2">
-        <v>58.69465117415592</v>
+        <v>47.95575489900875</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I2">
-        <v>42.75315948101495</v>
+        <v>34.12765037509642</v>
       </c>
       <c r="J2">
-        <v>10.42460092597672</v>
+        <v>6.474537253047676</v>
       </c>
       <c r="K2">
-        <v>15.86322915611633</v>
+        <v>11.10599294210878</v>
       </c>
       <c r="L2">
-        <v>11.72837058400516</v>
+        <v>6.675702223601841</v>
       </c>
       <c r="M2">
-        <v>17.62854016503052</v>
+        <v>10.13335377660127</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.2483593757087</v>
+        <v>11.78744468889899</v>
       </c>
       <c r="C3">
-        <v>6.094336099605031</v>
+        <v>6.705192438382861</v>
       </c>
       <c r="D3">
-        <v>3.441385103338726</v>
+        <v>2.767114660705014</v>
       </c>
       <c r="E3">
-        <v>10.38405863763118</v>
+        <v>5.729124777185581</v>
       </c>
       <c r="F3">
-        <v>58.51140703389682</v>
+        <v>46.90026588654273</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
-        <v>42.65336659491704</v>
+        <v>33.55432624274055</v>
       </c>
       <c r="J3">
-        <v>10.43262268719585</v>
+        <v>6.495415251642227</v>
       </c>
       <c r="K3">
-        <v>15.84653044710402</v>
+        <v>10.64920622668736</v>
       </c>
       <c r="L3">
-        <v>11.75000770832539</v>
+        <v>6.654083407997657</v>
       </c>
       <c r="M3">
-        <v>17.65987514556375</v>
+        <v>9.987762356490272</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.23751755836745</v>
+        <v>11.43067729096138</v>
       </c>
       <c r="C4">
-        <v>6.023962917165669</v>
+        <v>6.417543122502163</v>
       </c>
       <c r="D4">
-        <v>3.449260142005088</v>
+        <v>2.763950544274312</v>
       </c>
       <c r="E4">
-        <v>10.39496118729545</v>
+        <v>5.744368275888974</v>
       </c>
       <c r="F4">
-        <v>58.40547193871022</v>
+        <v>46.26199240466853</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
-        <v>42.59598130303169</v>
+        <v>33.21044862429222</v>
       </c>
       <c r="J4">
-        <v>10.43789362703449</v>
+        <v>6.508932715287568</v>
       </c>
       <c r="K4">
-        <v>15.84037225040131</v>
+        <v>10.36792922516095</v>
       </c>
       <c r="L4">
-        <v>11.76472790485023</v>
+        <v>6.643773215530767</v>
       </c>
       <c r="M4">
-        <v>17.68216696656829</v>
+        <v>9.903842724275776</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.23433732991727</v>
+        <v>11.28452529997358</v>
       </c>
       <c r="C5">
-        <v>5.995561236524315</v>
+        <v>6.297894009466513</v>
       </c>
       <c r="D5">
-        <v>3.452625987723626</v>
+        <v>2.762507905076372</v>
       </c>
       <c r="E5">
-        <v>10.39958015578754</v>
+        <v>5.750891732272049</v>
       </c>
       <c r="F5">
-        <v>58.36397429323856</v>
+        <v>46.00448874262653</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
-        <v>42.57358143914733</v>
+        <v>33.07238360821415</v>
       </c>
       <c r="J5">
-        <v>10.44012868122948</v>
+        <v>6.514617640499982</v>
       </c>
       <c r="K5">
-        <v>15.83889566593772</v>
+        <v>10.25327147050007</v>
       </c>
       <c r="L5">
-        <v>11.77108772213484</v>
+        <v>6.640303494519843</v>
       </c>
       <c r="M5">
-        <v>17.69201876254461</v>
+        <v>9.871027768670039</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.23388414955377</v>
+        <v>11.26021761482706</v>
       </c>
       <c r="C6">
-        <v>5.990863088342143</v>
+        <v>6.277882204462437</v>
       </c>
       <c r="D6">
-        <v>3.453194351241379</v>
+        <v>2.762259139145686</v>
       </c>
       <c r="E6">
-        <v>10.40035778165114</v>
+        <v>5.751993717354843</v>
       </c>
       <c r="F6">
-        <v>58.35718510085037</v>
+        <v>45.96189133367487</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
-        <v>42.56992166096047</v>
+        <v>33.04958347669152</v>
       </c>
       <c r="J6">
-        <v>10.44050507737529</v>
+        <v>6.515572299655783</v>
       </c>
       <c r="K6">
-        <v>15.83871294526413</v>
+        <v>10.23423579625376</v>
       </c>
       <c r="L6">
-        <v>11.77216559296541</v>
+        <v>6.639771148997421</v>
       </c>
       <c r="M6">
-        <v>17.69370101781984</v>
+        <v>9.86566253911789</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.23746965055301</v>
+        <v>11.42870902389977</v>
       </c>
       <c r="C7">
-        <v>6.023578707734196</v>
+        <v>6.415939217506558</v>
       </c>
       <c r="D7">
-        <v>3.449304900350139</v>
+        <v>2.76393170704583</v>
       </c>
       <c r="E7">
-        <v>10.39502276668645</v>
+        <v>5.744454994101064</v>
       </c>
       <c r="F7">
-        <v>58.40490549582012</v>
+        <v>46.25850892204998</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
-        <v>42.5956752127389</v>
+        <v>33.20857823268008</v>
       </c>
       <c r="J7">
-        <v>10.43792341679516</v>
+        <v>6.509008668620635</v>
       </c>
       <c r="K7">
-        <v>15.8403481507212</v>
+        <v>10.36638281666392</v>
       </c>
       <c r="L7">
-        <v>11.76481221250076</v>
+        <v>6.643723476708296</v>
       </c>
       <c r="M7">
-        <v>17.6822967227262</v>
+        <v>9.903394563909744</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.26414585971584</v>
+        <v>12.16490064115217</v>
       </c>
       <c r="C8">
-        <v>6.170252342280424</v>
+        <v>7.041245429636287</v>
       </c>
       <c r="D8">
-        <v>3.433517069753438</v>
+        <v>2.769963443664451</v>
       </c>
       <c r="E8">
-        <v>10.37302515530144</v>
+        <v>5.713928804450678</v>
       </c>
       <c r="F8">
-        <v>58.63011452670139</v>
+        <v>47.58986628389182</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
-        <v>42.71794860964961</v>
+        <v>33.92828907519758</v>
       </c>
       <c r="J8">
-        <v>10.4272952392535</v>
+        <v>6.481591585552063</v>
       </c>
       <c r="K8">
-        <v>15.85662373624082</v>
+        <v>10.94875540841113</v>
       </c>
       <c r="L8">
-        <v>11.73553348978027</v>
+        <v>6.667624798467199</v>
       </c>
       <c r="M8">
-        <v>17.63871119637766</v>
+        <v>10.08202223332591</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.35507739569234</v>
+        <v>13.56946782052088</v>
       </c>
       <c r="C9">
-        <v>6.463332278339324</v>
+        <v>8.243418563233821</v>
       </c>
       <c r="D9">
-        <v>3.407494370419141</v>
+        <v>2.776845906311357</v>
       </c>
       <c r="E9">
-        <v>10.33540756791377</v>
+        <v>5.664051790796766</v>
       </c>
       <c r="F9">
-        <v>59.12310140208078</v>
+        <v>50.27305866507707</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
-        <v>42.98822675007965</v>
+        <v>35.40356497705505</v>
       </c>
       <c r="J9">
-        <v>10.40918564381841</v>
+        <v>6.433326480486541</v>
       </c>
       <c r="K9">
-        <v>15.92085323074484</v>
+        <v>12.0780497122069</v>
       </c>
       <c r="L9">
-        <v>11.68948583016178</v>
+        <v>6.738619914231131</v>
       </c>
       <c r="M9">
-        <v>17.57744292963112</v>
+        <v>10.47539010881201</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.4449801789347</v>
+        <v>14.56919209893245</v>
       </c>
       <c r="C10">
-        <v>6.67949748595061</v>
+        <v>9.053377190960363</v>
       </c>
       <c r="D10">
-        <v>3.391379461507019</v>
+        <v>2.778785907354314</v>
       </c>
       <c r="E10">
-        <v>10.31110540338143</v>
+        <v>5.63364401532104</v>
       </c>
       <c r="F10">
-        <v>59.5154045476521</v>
+        <v>52.28252939643896</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
-        <v>43.2048962935949</v>
+        <v>36.52592102101227</v>
       </c>
       <c r="J10">
-        <v>10.3975331151283</v>
+        <v>6.401158604803264</v>
       </c>
       <c r="K10">
-        <v>15.98745150769691</v>
+        <v>12.89312136274335</v>
       </c>
       <c r="L10">
-        <v>11.66256086518133</v>
+        <v>6.806336790132773</v>
       </c>
       <c r="M10">
-        <v>17.54716116971187</v>
+        <v>10.79016984385116</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.490774906098</v>
+        <v>15.01586368309473</v>
       </c>
       <c r="C11">
-        <v>6.777515173490927</v>
+        <v>9.406793043138135</v>
       </c>
       <c r="D11">
-        <v>3.384699404859306</v>
+        <v>2.778967397063445</v>
       </c>
       <c r="E11">
-        <v>10.30076777075299</v>
+        <v>5.621204463993511</v>
       </c>
       <c r="F11">
-        <v>59.70012591172854</v>
+        <v>53.20411475499833</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
-        <v>43.30727481102819</v>
+        <v>37.04492082932411</v>
       </c>
       <c r="J11">
-        <v>10.39258816344296</v>
+        <v>6.387225433570677</v>
       </c>
       <c r="K11">
-        <v>16.02188424569288</v>
+        <v>13.25976138368995</v>
       </c>
       <c r="L11">
-        <v>11.65180628615554</v>
+        <v>6.840710062306468</v>
       </c>
       <c r="M11">
-        <v>17.53657695256803</v>
+        <v>10.93887652004966</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.50880861860662</v>
+        <v>15.1837848385243</v>
       </c>
       <c r="C12">
-        <v>6.814546539023239</v>
+        <v>9.538538106678649</v>
       </c>
       <c r="D12">
-        <v>3.382263314226873</v>
+        <v>2.778933161918022</v>
       </c>
       <c r="E12">
-        <v>10.29695587723512</v>
+        <v>5.616698123104515</v>
       </c>
       <c r="F12">
-        <v>59.77094877830014</v>
+        <v>53.5541299665114</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
-        <v>43.34657993512298</v>
+        <v>37.24268271465402</v>
       </c>
       <c r="J12">
-        <v>10.39076659405812</v>
+        <v>6.382048768735436</v>
       </c>
       <c r="K12">
-        <v>16.03550990821593</v>
+        <v>13.41593051646182</v>
       </c>
       <c r="L12">
-        <v>11.64794813338449</v>
+        <v>6.854255608368057</v>
       </c>
       <c r="M12">
-        <v>17.53302701422131</v>
+        <v>10.99597491351953</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.50489415074433</v>
+        <v>15.14767505828591</v>
       </c>
       <c r="C13">
-        <v>6.806575608019083</v>
+        <v>9.510255920860226</v>
       </c>
       <c r="D13">
-        <v>3.382783812509389</v>
+        <v>2.778945149922056</v>
       </c>
       <c r="E13">
-        <v>10.29777227410158</v>
+        <v>5.617659492275477</v>
       </c>
       <c r="F13">
-        <v>59.75565743404606</v>
+        <v>53.47870242001559</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
-        <v>43.33809120436423</v>
+        <v>37.20003614531382</v>
       </c>
       <c r="J13">
-        <v>10.39115663748633</v>
+        <v>6.383159249070217</v>
       </c>
       <c r="K13">
-        <v>16.03254942098219</v>
+        <v>13.37653526833494</v>
       </c>
       <c r="L13">
-        <v>11.64876952825333</v>
+        <v>6.851314535215821</v>
       </c>
       <c r="M13">
-        <v>17.53377119819427</v>
+        <v>10.98364283832342</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.49224474945866</v>
+        <v>15.02970341312645</v>
       </c>
       <c r="C14">
-        <v>6.78056370944168</v>
+        <v>9.417673127625104</v>
       </c>
       <c r="D14">
-        <v>3.384497112692897</v>
+        <v>2.778966656795936</v>
       </c>
       <c r="E14">
-        <v>10.30045210734183</v>
+        <v>5.620829606885343</v>
       </c>
       <c r="F14">
-        <v>59.70593521884729</v>
+        <v>53.23289018898431</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
-        <v>43.31049778346834</v>
+        <v>37.06116607102804</v>
       </c>
       <c r="J14">
-        <v>10.39243728129044</v>
+        <v>6.386797558541598</v>
       </c>
       <c r="K14">
-        <v>16.0229935276169</v>
+        <v>13.27114358782325</v>
       </c>
       <c r="L14">
-        <v>11.65148457974073</v>
+        <v>6.841813763195427</v>
       </c>
       <c r="M14">
-        <v>17.53627572158538</v>
+        <v>10.94355830162695</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.48458640183351</v>
+        <v>14.9572817797528</v>
       </c>
       <c r="C15">
-        <v>6.764618335021066</v>
+        <v>9.360694251503125</v>
       </c>
       <c r="D15">
-        <v>3.385558733194839</v>
+        <v>2.778966355767829</v>
       </c>
       <c r="E15">
-        <v>10.30210694988452</v>
+        <v>5.622798117822579</v>
       </c>
       <c r="F15">
-        <v>59.6755917685332</v>
+        <v>53.08245661742512</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
-        <v>43.29366553325006</v>
+        <v>36.97626474681658</v>
       </c>
       <c r="J15">
-        <v>10.39322834553202</v>
+        <v>6.389039053455268</v>
       </c>
       <c r="K15">
-        <v>16.01721642165654</v>
+        <v>13.2115963122141</v>
       </c>
       <c r="L15">
-        <v>11.65317553198787</v>
+        <v>6.836063664157531</v>
       </c>
       <c r="M15">
-        <v>17.53786944319823</v>
+        <v>10.9191076532031</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.44208493367594</v>
+        <v>14.53983232612551</v>
       </c>
       <c r="C16">
-        <v>6.673081939490817</v>
+        <v>9.02998441454374</v>
       </c>
       <c r="D16">
-        <v>3.391829106863296</v>
+        <v>2.77875975877417</v>
       </c>
       <c r="E16">
-        <v>10.31179539324971</v>
+        <v>5.634485325629108</v>
       </c>
       <c r="F16">
-        <v>59.50345624164369</v>
+        <v>52.22244749876999</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
-        <v>43.19828136973982</v>
+        <v>36.49217385138621</v>
       </c>
       <c r="J16">
-        <v>10.39786342326212</v>
+        <v>6.402083162220376</v>
       </c>
       <c r="K16">
-        <v>15.9852838134668</v>
+        <v>12.86907219809401</v>
       </c>
       <c r="L16">
-        <v>11.66329372403579</v>
+        <v>6.804163571146407</v>
       </c>
       <c r="M16">
-        <v>17.54791702097949</v>
+        <v>10.78056182091801</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.41725782195046</v>
+        <v>14.28161388752117</v>
       </c>
       <c r="C17">
-        <v>6.616816928572092</v>
+        <v>8.823305284063188</v>
       </c>
       <c r="D17">
-        <v>3.3958423894432</v>
+        <v>2.778451974910557</v>
       </c>
       <c r="E17">
-        <v>10.31792240659411</v>
+        <v>5.642014487671132</v>
       </c>
       <c r="F17">
-        <v>59.39944111234872</v>
+        <v>51.69673196060023</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
-        <v>43.14073497908582</v>
+        <v>36.19736638619965</v>
       </c>
       <c r="J17">
-        <v>10.40079789517534</v>
+        <v>6.410263829634598</v>
       </c>
       <c r="K17">
-        <v>15.96674819989636</v>
+        <v>12.65783927017207</v>
       </c>
       <c r="L17">
-        <v>11.66988319060018</v>
+        <v>6.785519000646294</v>
       </c>
       <c r="M17">
-        <v>17.55489767630952</v>
+        <v>10.69697475088949</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.4034396880505</v>
+        <v>14.13233193755072</v>
       </c>
       <c r="C18">
-        <v>6.584427242369308</v>
+        <v>8.703008433914121</v>
       </c>
       <c r="D18">
-        <v>3.398211974221178</v>
+        <v>2.778209098592865</v>
       </c>
       <c r="E18">
-        <v>10.3215140672376</v>
+        <v>5.646475924213655</v>
       </c>
       <c r="F18">
-        <v>59.34020536981552</v>
+        <v>51.39505789318445</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
-        <v>43.10799560615986</v>
+        <v>36.02859314171531</v>
       </c>
       <c r="J18">
-        <v>10.40251923081239</v>
+        <v>6.415035109085326</v>
       </c>
       <c r="K18">
-        <v>15.95647692356764</v>
+        <v>12.53595571076222</v>
       </c>
       <c r="L18">
-        <v>11.67381390015901</v>
+        <v>6.77513002553599</v>
       </c>
       <c r="M18">
-        <v>17.55921318333104</v>
+        <v>10.64941668641833</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.39884076222009</v>
+        <v>14.0816590619145</v>
       </c>
       <c r="C19">
-        <v>6.573457177824367</v>
+        <v>8.662031797230775</v>
       </c>
       <c r="D19">
-        <v>3.399024796810997</v>
+        <v>2.778115619160175</v>
       </c>
       <c r="E19">
-        <v>10.32274175951849</v>
+        <v>5.648008854265901</v>
       </c>
       <c r="F19">
-        <v>59.32025148493758</v>
+        <v>51.29303889716569</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
-        <v>43.09697276356895</v>
+        <v>35.97158525225215</v>
       </c>
       <c r="J19">
-        <v>10.40310780590636</v>
+        <v>6.416661947684091</v>
       </c>
       <c r="K19">
-        <v>15.95306644975152</v>
+        <v>12.49462339262542</v>
       </c>
       <c r="L19">
-        <v>11.67516893553048</v>
+        <v>6.771669540803546</v>
       </c>
       <c r="M19">
-        <v>17.56072595927922</v>
+        <v>10.63340372352259</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.41985300312341</v>
+        <v>14.30918100463531</v>
       </c>
       <c r="C20">
-        <v>6.622809582802653</v>
+        <v>8.845453111881319</v>
       </c>
       <c r="D20">
-        <v>3.395408829928685</v>
+        <v>2.778491569173268</v>
       </c>
       <c r="E20">
-        <v>10.31726318607172</v>
+        <v>5.641199425043795</v>
       </c>
       <c r="F20">
-        <v>59.41045272742952</v>
+        <v>51.75262286756274</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
-        <v>43.14682373796516</v>
+        <v>36.22866708916392</v>
       </c>
       <c r="J20">
-        <v>10.40048204939122</v>
+        <v>6.40938616348686</v>
       </c>
       <c r="K20">
-        <v>15.96868104894801</v>
+        <v>12.68036598672703</v>
       </c>
       <c r="L20">
-        <v>11.66916717971479</v>
+        <v>6.787468974196709</v>
       </c>
       <c r="M20">
-        <v>17.55412348678646</v>
+        <v>10.70581907723736</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.49594149893275</v>
+        <v>15.06438807657596</v>
       </c>
       <c r="C21">
-        <v>6.788206674344598</v>
+        <v>9.444922900915586</v>
       </c>
       <c r="D21">
-        <v>3.38399133783211</v>
+        <v>2.778963151828455</v>
       </c>
       <c r="E21">
-        <v>10.29966219040261</v>
+        <v>5.619892890336859</v>
       </c>
       <c r="F21">
-        <v>59.72051637314711</v>
+        <v>53.30506340563177</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
-        <v>43.31858817496087</v>
+        <v>37.10192206015161</v>
       </c>
       <c r="J21">
-        <v>10.39205974320742</v>
+        <v>6.385726207421834</v>
       </c>
       <c r="K21">
-        <v>16.02578447020932</v>
+        <v>13.29967496796537</v>
       </c>
       <c r="L21">
-        <v>11.65068128874757</v>
+        <v>6.844589877920972</v>
       </c>
       <c r="M21">
-        <v>17.53552765740852</v>
+        <v>10.95531079102941</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.54969834477552</v>
+        <v>15.55081987529441</v>
       </c>
       <c r="C22">
-        <v>6.895785833737525</v>
+        <v>9.824594020998807</v>
       </c>
       <c r="D22">
-        <v>3.377074314416327</v>
+        <v>2.778670135023689</v>
       </c>
       <c r="E22">
-        <v>10.28875758978376</v>
+        <v>5.607160554275826</v>
       </c>
       <c r="F22">
-        <v>59.92823520880135</v>
+        <v>54.32568547602104</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
-        <v>43.43396791521268</v>
+        <v>37.67981993796851</v>
       </c>
       <c r="J22">
-        <v>10.38685232054133</v>
+        <v>6.37084256506117</v>
       </c>
       <c r="K22">
-        <v>16.06652045058882</v>
+        <v>13.81414899576364</v>
       </c>
       <c r="L22">
-        <v>11.63984901017574</v>
+        <v>6.885013996471033</v>
       </c>
       <c r="M22">
-        <v>17.52604374948139</v>
+        <v>11.12295166873833</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.52064292510169</v>
+        <v>15.29186721427809</v>
       </c>
       <c r="C23">
-        <v>6.838428937066071</v>
+        <v>9.623037867271929</v>
       </c>
       <c r="D23">
-        <v>3.380716218158277</v>
+        <v>2.778882279042156</v>
       </c>
       <c r="E23">
-        <v>10.29452294610883</v>
+        <v>5.613845473403788</v>
       </c>
       <c r="F23">
-        <v>59.81691682760221</v>
+        <v>53.78041574350304</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
-        <v>43.37210603590744</v>
+        <v>37.37071951671177</v>
       </c>
       <c r="J23">
-        <v>10.38960450421795</v>
+        <v>6.378733624955683</v>
       </c>
       <c r="K23">
-        <v>16.04446925705941</v>
+        <v>13.53360809584437</v>
       </c>
       <c r="L23">
-        <v>11.64551623279456</v>
+        <v>6.86315041232359</v>
       </c>
       <c r="M23">
-        <v>17.53086152720588</v>
+        <v>11.03306025855378</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.41867830255293</v>
+        <v>14.29672048758272</v>
       </c>
       <c r="C24">
-        <v>6.620100432135024</v>
+        <v>8.835444676637019</v>
       </c>
       <c r="D24">
-        <v>3.395604648155012</v>
+        <v>2.778473873795053</v>
       </c>
       <c r="E24">
-        <v>10.31756100422241</v>
+        <v>5.641567501439413</v>
       </c>
       <c r="F24">
-        <v>59.40547261734839</v>
+        <v>51.72735281938136</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
-        <v>43.14406993496139</v>
+        <v>36.21451381368216</v>
       </c>
       <c r="J24">
-        <v>10.40062473651132</v>
+        <v>6.409782744134812</v>
       </c>
       <c r="K24">
-        <v>15.96780600771604</v>
+        <v>12.67018303350686</v>
       </c>
       <c r="L24">
-        <v>11.6694904448303</v>
+        <v>6.786586364360629</v>
       </c>
       <c r="M24">
-        <v>17.55447255634995</v>
+        <v>10.70181900793226</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.32638519142507</v>
+        <v>13.19466604980931</v>
       </c>
       <c r="C25">
-        <v>6.383723089846399</v>
+        <v>7.931336839493897</v>
       </c>
       <c r="D25">
-        <v>3.414006243167162</v>
+        <v>2.77552353184963</v>
       </c>
       <c r="E25">
-        <v>10.34499626285973</v>
+        <v>5.676461610702386</v>
       </c>
       <c r="F25">
-        <v>58.98435577580348</v>
+        <v>49.54011633353185</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
-        <v>42.91189267283754</v>
+        <v>34.99769322229734</v>
       </c>
       <c r="J25">
-        <v>10.41379361887622</v>
+        <v>6.445800726879275</v>
       </c>
       <c r="K25">
-        <v>15.90004473747404</v>
+        <v>11.77470285418515</v>
       </c>
       <c r="L25">
-        <v>11.70072834054314</v>
+        <v>6.716744087285581</v>
       </c>
       <c r="M25">
-        <v>17.591428387428</v>
+        <v>10.36441156997852</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_14/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_14/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.36210925954401</v>
+        <v>24.19098111277084</v>
       </c>
       <c r="C2">
-        <v>7.216105280973125</v>
+        <v>15.248380478173</v>
       </c>
       <c r="D2">
-        <v>2.771266550080469</v>
+        <v>4.771179276025958</v>
       </c>
       <c r="E2">
-        <v>5.706328552048631</v>
+        <v>8.321232127636501</v>
       </c>
       <c r="F2">
-        <v>47.95575489900875</v>
+        <v>18.2966127729187</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669778333</v>
+        <v>1.57705599997436</v>
       </c>
       <c r="I2">
-        <v>34.12765037509642</v>
+        <v>2.472680629677559</v>
       </c>
       <c r="J2">
-        <v>6.474537253047676</v>
+        <v>4.251792669784106</v>
       </c>
       <c r="K2">
-        <v>11.10599294210878</v>
+        <v>13.58188612051233</v>
       </c>
       <c r="L2">
-        <v>6.675702223601841</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>10.13335377660127</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>8.087183344043469</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>14.62834273202277</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.78744468889899</v>
+        <v>22.59685041073414</v>
       </c>
       <c r="C3">
-        <v>6.705192438382861</v>
+        <v>14.50740335485244</v>
       </c>
       <c r="D3">
-        <v>2.767114660705014</v>
+        <v>4.610985095607266</v>
       </c>
       <c r="E3">
-        <v>5.729124777185581</v>
+        <v>8.20175795912956</v>
       </c>
       <c r="F3">
-        <v>46.90026588654273</v>
+        <v>17.86655896238992</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>1.791201051762127</v>
       </c>
       <c r="I3">
-        <v>33.55432624274055</v>
+        <v>2.647889739822638</v>
       </c>
       <c r="J3">
-        <v>6.495415251642227</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K3">
-        <v>10.64920622668736</v>
+        <v>13.77074941027336</v>
       </c>
       <c r="L3">
-        <v>6.654083407997657</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>9.987762356490272</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>7.751118667589223</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>14.51408557321452</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.43067729096138</v>
+        <v>21.55799165378488</v>
       </c>
       <c r="C4">
-        <v>6.417543122502163</v>
+        <v>14.03503524153108</v>
       </c>
       <c r="D4">
-        <v>2.763950544274312</v>
+        <v>4.509672511939282</v>
       </c>
       <c r="E4">
-        <v>5.744368275888974</v>
+        <v>8.125859507576536</v>
       </c>
       <c r="F4">
-        <v>46.26199240466853</v>
+        <v>17.60886418618541</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>1.927255761433343</v>
       </c>
       <c r="I4">
-        <v>33.21044862429222</v>
+        <v>2.760423876812009</v>
       </c>
       <c r="J4">
-        <v>6.508932715287568</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K4">
-        <v>10.36792922516095</v>
+        <v>13.89241718679011</v>
       </c>
       <c r="L4">
-        <v>6.643773215530767</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>9.903842724275776</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>7.53750743510231</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>14.45215136294851</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.28452529997358</v>
+        <v>21.11935338763498</v>
       </c>
       <c r="C5">
-        <v>6.297894009466513</v>
+        <v>13.84796720148293</v>
       </c>
       <c r="D5">
-        <v>2.762507905076372</v>
+        <v>4.469413014260278</v>
       </c>
       <c r="E5">
-        <v>5.750891732272049</v>
+        <v>8.092483009736851</v>
       </c>
       <c r="F5">
-        <v>46.00448874262653</v>
+        <v>17.49521359001108</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>1.98415327503521</v>
       </c>
       <c r="I5">
-        <v>33.07238360821415</v>
+        <v>2.810393295253708</v>
       </c>
       <c r="J5">
-        <v>6.514617640499982</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K5">
-        <v>10.25327147050007</v>
+        <v>13.93719377517389</v>
       </c>
       <c r="L5">
-        <v>6.640303494519843</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>9.871027768670039</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>7.449458986257628</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>14.42115872281389</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.26021761482706</v>
+        <v>21.04543478409231</v>
       </c>
       <c r="C6">
-        <v>6.277882204462437</v>
+        <v>13.82851073256484</v>
       </c>
       <c r="D6">
-        <v>2.762259139145686</v>
+        <v>4.464816178042616</v>
       </c>
       <c r="E6">
-        <v>5.751993717354843</v>
+        <v>8.084698667027448</v>
       </c>
       <c r="F6">
-        <v>45.96189133367487</v>
+        <v>17.46380119751548</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>1.994021866791912</v>
       </c>
       <c r="I6">
-        <v>33.04958347669152</v>
+        <v>2.822588872325989</v>
       </c>
       <c r="J6">
-        <v>6.515572299655783</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K6">
-        <v>10.23423579625376</v>
+        <v>13.93716195170458</v>
       </c>
       <c r="L6">
-        <v>6.639771148997421</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>9.86566253911789</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>7.435651012068956</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>14.40663454323059</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.42870902389977</v>
+        <v>21.5516940426591</v>
       </c>
       <c r="C7">
-        <v>6.415939217506558</v>
+        <v>14.06442752964547</v>
       </c>
       <c r="D7">
-        <v>2.76393170704583</v>
+        <v>4.514911127583318</v>
       </c>
       <c r="E7">
-        <v>5.744454994101064</v>
+        <v>8.119453122079413</v>
       </c>
       <c r="F7">
-        <v>46.25850892204998</v>
+        <v>17.57306345214185</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>1.92895269328612</v>
       </c>
       <c r="I7">
-        <v>33.20857823268008</v>
+        <v>2.771255199372969</v>
       </c>
       <c r="J7">
-        <v>6.509008668620635</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K7">
-        <v>10.36638281666392</v>
+        <v>13.87236804519544</v>
       </c>
       <c r="L7">
-        <v>6.643723476708296</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>9.903394563909744</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>7.538796828532421</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>14.42587021493618</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.16490064115217</v>
+        <v>23.65320648190096</v>
       </c>
       <c r="C8">
-        <v>7.041245429636287</v>
+        <v>15.03663413819477</v>
       </c>
       <c r="D8">
-        <v>2.769963443664451</v>
+        <v>4.724036135023058</v>
       </c>
       <c r="E8">
-        <v>5.713928804450678</v>
+        <v>8.272945322508718</v>
       </c>
       <c r="F8">
-        <v>47.58986628389182</v>
+        <v>18.10312027170144</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>1.651101507241548</v>
       </c>
       <c r="I8">
-        <v>33.92828907519758</v>
+        <v>2.544936322589</v>
       </c>
       <c r="J8">
-        <v>6.481591585552063</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K8">
-        <v>10.94875540841113</v>
+        <v>13.61836816481207</v>
       </c>
       <c r="L8">
-        <v>6.667624798467199</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>10.08202223332591</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>7.975992985441089</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>14.55346593572385</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.56946782052088</v>
+        <v>27.3012206427065</v>
       </c>
       <c r="C9">
-        <v>8.243418563233821</v>
+        <v>16.7479630108476</v>
       </c>
       <c r="D9">
-        <v>2.776845906311357</v>
+        <v>5.099542784671245</v>
       </c>
       <c r="E9">
-        <v>5.664051790796766</v>
+        <v>8.564172822923112</v>
       </c>
       <c r="F9">
-        <v>50.27305866507707</v>
+        <v>19.2472824064599</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>1.97085310442461</v>
       </c>
       <c r="I9">
-        <v>35.40356497705505</v>
+        <v>2.82490688373939</v>
       </c>
       <c r="J9">
-        <v>6.433326480486541</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K9">
-        <v>12.0780497122069</v>
+        <v>13.20538484541062</v>
       </c>
       <c r="L9">
-        <v>6.738619914231131</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>10.47539010881201</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>8.768585345046318</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>14.91658072774869</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.56919209893245</v>
+        <v>29.69425033796678</v>
       </c>
       <c r="C10">
-        <v>9.053377190960363</v>
+        <v>18.02004750636122</v>
       </c>
       <c r="D10">
-        <v>2.778785907354314</v>
+        <v>5.388184777388686</v>
       </c>
       <c r="E10">
-        <v>5.63364401532104</v>
+        <v>8.677147127031008</v>
       </c>
       <c r="F10">
-        <v>52.28252939643896</v>
+        <v>19.94825202311721</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>2.307262847371746</v>
       </c>
       <c r="I10">
-        <v>36.52592102101227</v>
+        <v>3.108232630300165</v>
       </c>
       <c r="J10">
-        <v>6.401158604803264</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K10">
-        <v>12.89312136274335</v>
+        <v>12.83210636688146</v>
       </c>
       <c r="L10">
-        <v>6.806336790132773</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>10.79016984385116</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>9.17862799809115</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>15.09760671255628</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.01586368309473</v>
+        <v>30.70432256635463</v>
       </c>
       <c r="C11">
-        <v>9.406793043138135</v>
+        <v>19.42480569074753</v>
       </c>
       <c r="D11">
-        <v>2.778967397063445</v>
+        <v>5.759414792604346</v>
       </c>
       <c r="E11">
-        <v>5.621204463993511</v>
+        <v>8.224249503968755</v>
       </c>
       <c r="F11">
-        <v>53.20411475499833</v>
+        <v>18.96049862894942</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>3.113151420267066</v>
       </c>
       <c r="I11">
-        <v>37.04492082932411</v>
+        <v>3.200073526762581</v>
       </c>
       <c r="J11">
-        <v>6.387225433570677</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K11">
-        <v>13.25976138368995</v>
+        <v>11.87221617285893</v>
       </c>
       <c r="L11">
-        <v>6.840710062306468</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>10.93887652004966</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>8.236623226674732</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>14.13712940493574</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.1837848385243</v>
+        <v>31.07276473742259</v>
       </c>
       <c r="C12">
-        <v>9.538538106678649</v>
+        <v>20.33185139434018</v>
       </c>
       <c r="D12">
-        <v>2.778933161918022</v>
+        <v>6.015145170236745</v>
       </c>
       <c r="E12">
-        <v>5.616698123104515</v>
+        <v>8.194033485133891</v>
       </c>
       <c r="F12">
-        <v>53.5541299665114</v>
+        <v>18.00513699228009</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>4.314420848409407</v>
       </c>
       <c r="I12">
-        <v>37.24268271465402</v>
+        <v>3.219079076899821</v>
       </c>
       <c r="J12">
-        <v>6.382048768735436</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K12">
-        <v>13.41593051646182</v>
+        <v>11.231510029255</v>
       </c>
       <c r="L12">
-        <v>6.854255608368057</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>10.99597491351953</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>7.380431912815011</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>13.31492331548508</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.14767505828591</v>
+        <v>30.98203561726516</v>
       </c>
       <c r="C13">
-        <v>9.510255920860226</v>
+        <v>20.97184741786296</v>
       </c>
       <c r="D13">
-        <v>2.778945149922056</v>
+        <v>6.208563241968927</v>
       </c>
       <c r="E13">
-        <v>5.617659492275477</v>
+        <v>8.473383918806956</v>
       </c>
       <c r="F13">
-        <v>53.47870242001559</v>
+        <v>16.94766376384674</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>5.602134425121204</v>
       </c>
       <c r="I13">
-        <v>37.20003614531382</v>
+        <v>3.186903591885083</v>
       </c>
       <c r="J13">
-        <v>6.383159249070217</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K13">
-        <v>13.37653526833494</v>
+        <v>10.78404376443946</v>
       </c>
       <c r="L13">
-        <v>6.851314535215821</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>10.98364283832342</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>6.539588989454789</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>12.50572501578156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.02970341312645</v>
+        <v>30.7095932281973</v>
       </c>
       <c r="C14">
-        <v>9.417673127625104</v>
+        <v>21.31624630398378</v>
       </c>
       <c r="D14">
-        <v>2.778966656795936</v>
+        <v>6.31959931282042</v>
       </c>
       <c r="E14">
-        <v>5.620829606885343</v>
+        <v>8.838727987568841</v>
       </c>
       <c r="F14">
-        <v>53.23289018898431</v>
+        <v>16.14545508622993</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>6.533253378693315</v>
       </c>
       <c r="I14">
-        <v>37.06116607102804</v>
+        <v>3.142509970562762</v>
       </c>
       <c r="J14">
-        <v>6.386797558541598</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K14">
-        <v>13.27114358782325</v>
+        <v>10.57656834440956</v>
       </c>
       <c r="L14">
-        <v>6.841813763195427</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>10.94355830162695</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.973033739957774</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>11.9422397698708</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.9572817797528</v>
+        <v>30.54359672105364</v>
       </c>
       <c r="C15">
-        <v>9.360694251503125</v>
+        <v>21.35314058858111</v>
       </c>
       <c r="D15">
-        <v>2.778966355767829</v>
+        <v>6.334767655538381</v>
       </c>
       <c r="E15">
-        <v>5.622798117822579</v>
+        <v>8.941205989141174</v>
       </c>
       <c r="F15">
-        <v>53.08245661742512</v>
+        <v>15.91827722645015</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>6.744999055097205</v>
       </c>
       <c r="I15">
-        <v>36.97626474681658</v>
+        <v>3.121498157759294</v>
       </c>
       <c r="J15">
-        <v>6.389039053455268</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K15">
-        <v>13.2115963122141</v>
+        <v>10.5568309693894</v>
       </c>
       <c r="L15">
-        <v>6.836063664157531</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>10.9191076532031</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.835748416832008</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>11.80182895938778</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.53983232612551</v>
+        <v>29.58224502733511</v>
       </c>
       <c r="C16">
-        <v>9.02998441454374</v>
+        <v>20.76038221428813</v>
       </c>
       <c r="D16">
-        <v>2.77875975877417</v>
+        <v>6.18676647515703</v>
       </c>
       <c r="E16">
-        <v>5.634485325629108</v>
+        <v>8.823831353119193</v>
       </c>
       <c r="F16">
-        <v>52.22244749876999</v>
+        <v>15.76188850129069</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>6.473528982883531</v>
       </c>
       <c r="I16">
-        <v>36.49217385138621</v>
+        <v>3.0084645869316</v>
       </c>
       <c r="J16">
-        <v>6.402083162220376</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K16">
-        <v>12.86907219809401</v>
+        <v>10.81544735559213</v>
       </c>
       <c r="L16">
-        <v>6.804163571146407</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>10.78056182091801</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.795860630083462</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>11.86181981733572</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.28161388752117</v>
+        <v>28.97971619003063</v>
       </c>
       <c r="C17">
-        <v>8.823305284063188</v>
+        <v>20.10430432702816</v>
       </c>
       <c r="D17">
-        <v>2.778451974910557</v>
+        <v>6.009972628983558</v>
       </c>
       <c r="E17">
-        <v>5.642014487671132</v>
+        <v>8.509242940460574</v>
       </c>
       <c r="F17">
-        <v>51.69673196060023</v>
+        <v>16.08181127989084</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>5.721575149972738</v>
       </c>
       <c r="I17">
-        <v>36.19736638619965</v>
+        <v>2.945481232314562</v>
       </c>
       <c r="J17">
-        <v>6.410263829634598</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K17">
-        <v>12.65783927017207</v>
+        <v>11.10984409412267</v>
       </c>
       <c r="L17">
-        <v>6.785519000646294</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>10.69697475088949</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>6.063503534873364</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>12.2071375512283</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.13233193755072</v>
+        <v>28.6326962135614</v>
       </c>
       <c r="C18">
-        <v>8.703008433914121</v>
+        <v>19.30714527630281</v>
       </c>
       <c r="D18">
-        <v>2.778209098592865</v>
+        <v>5.787820611134522</v>
       </c>
       <c r="E18">
-        <v>5.646475924213655</v>
+        <v>8.147881813475905</v>
       </c>
       <c r="F18">
-        <v>51.39505789318445</v>
+        <v>16.86534722595336</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>4.506778038345596</v>
       </c>
       <c r="I18">
-        <v>36.02859314171531</v>
+        <v>2.917169859707008</v>
       </c>
       <c r="J18">
-        <v>6.415035109085326</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K18">
-        <v>12.53595571076222</v>
+        <v>11.5237816928718</v>
       </c>
       <c r="L18">
-        <v>6.77513002553599</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>10.64941668641833</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>6.669947181836239</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>12.85638319545886</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.0816590619145</v>
+        <v>28.52253852196278</v>
       </c>
       <c r="C19">
-        <v>8.662031797230775</v>
+        <v>18.53164568873747</v>
       </c>
       <c r="D19">
-        <v>2.778115619160175</v>
+        <v>5.564388703768643</v>
       </c>
       <c r="E19">
-        <v>5.648008854265901</v>
+        <v>8.047979886745463</v>
       </c>
       <c r="F19">
-        <v>51.29303889716569</v>
+        <v>17.89756006947211</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>3.156493625457361</v>
       </c>
       <c r="I19">
-        <v>35.97158525225215</v>
+        <v>2.930866002235912</v>
       </c>
       <c r="J19">
-        <v>6.416661947684091</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K19">
-        <v>12.49462339262542</v>
+        <v>12.04301239596081</v>
       </c>
       <c r="L19">
-        <v>6.771669540803546</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>10.63340372352259</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>7.550510638165524</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>13.66689555184922</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.30918100463531</v>
+        <v>29.08367765887763</v>
       </c>
       <c r="C20">
-        <v>8.845453111881319</v>
+        <v>17.78046238376381</v>
       </c>
       <c r="D20">
-        <v>2.778491569173268</v>
+        <v>5.33129600642859</v>
       </c>
       <c r="E20">
-        <v>5.641199425043795</v>
+        <v>8.627954236736903</v>
       </c>
       <c r="F20">
-        <v>51.75262286756274</v>
+        <v>19.6614102341313</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>2.216165777085839</v>
       </c>
       <c r="I20">
-        <v>36.22866708916392</v>
+        <v>3.044347839367351</v>
       </c>
       <c r="J20">
-        <v>6.40938616348686</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K20">
-        <v>12.68036598672703</v>
+        <v>12.85921350827041</v>
       </c>
       <c r="L20">
-        <v>6.787468974196709</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>10.70581907723736</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>9.073472691207654</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>14.96594509820438</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.06438807657596</v>
+        <v>30.83467188582479</v>
       </c>
       <c r="C21">
-        <v>9.444922900915586</v>
+        <v>18.56215070483184</v>
       </c>
       <c r="D21">
-        <v>2.778963151828455</v>
+        <v>5.502234139225306</v>
       </c>
       <c r="E21">
-        <v>5.619892890336859</v>
+        <v>8.849121182612867</v>
       </c>
       <c r="F21">
-        <v>53.30506340563177</v>
+        <v>20.45541586703668</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>2.485507879019926</v>
       </c>
       <c r="I21">
-        <v>37.10192206015161</v>
+        <v>3.263478714031308</v>
       </c>
       <c r="J21">
-        <v>6.385726207421834</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K21">
-        <v>13.29967496796537</v>
+        <v>12.74157168609824</v>
       </c>
       <c r="L21">
-        <v>6.844589877920972</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>10.95531079102941</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>9.580400445387058</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>15.31910277628131</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.55081987529441</v>
+        <v>31.92778515833291</v>
       </c>
       <c r="C22">
-        <v>9.824594020998807</v>
+        <v>19.071585312613</v>
       </c>
       <c r="D22">
-        <v>2.778670135023689</v>
+        <v>5.617843838288953</v>
       </c>
       <c r="E22">
-        <v>5.607160554275826</v>
+        <v>8.954000645546738</v>
       </c>
       <c r="F22">
-        <v>54.32568547602104</v>
+        <v>20.93818010460784</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>2.653249541867129</v>
       </c>
       <c r="I22">
-        <v>37.67981993796851</v>
+        <v>3.398601975591043</v>
       </c>
       <c r="J22">
-        <v>6.37084256506117</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K22">
-        <v>13.81414899576364</v>
+        <v>12.65283666614191</v>
       </c>
       <c r="L22">
-        <v>6.885013996471033</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>11.12295166873833</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>9.832490523363012</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>15.52875637990145</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.29186721427809</v>
+        <v>31.34938528937315</v>
       </c>
       <c r="C23">
-        <v>9.623037867271929</v>
+        <v>18.77131281946729</v>
       </c>
       <c r="D23">
-        <v>2.778882279042156</v>
+        <v>5.550426619470506</v>
       </c>
       <c r="E23">
-        <v>5.613845473403788</v>
+        <v>8.904259303259678</v>
       </c>
       <c r="F23">
-        <v>53.78041574350304</v>
+        <v>20.71458687308176</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>2.564792947984312</v>
       </c>
       <c r="I23">
-        <v>37.37071951671177</v>
+        <v>3.323002005816976</v>
       </c>
       <c r="J23">
-        <v>6.378733624955683</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K23">
-        <v>13.53360809584437</v>
+        <v>12.72432266253728</v>
       </c>
       <c r="L23">
-        <v>6.86315041232359</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>11.03306025855378</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>9.696280038681348</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>15.44405911801811</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.29672048758272</v>
+        <v>29.05657940863991</v>
       </c>
       <c r="C24">
-        <v>8.835444676637019</v>
+        <v>17.64505584218222</v>
       </c>
       <c r="D24">
-        <v>2.778473873795053</v>
+        <v>5.297748671412374</v>
       </c>
       <c r="E24">
-        <v>5.641567501439413</v>
+        <v>8.702628150294178</v>
       </c>
       <c r="F24">
-        <v>51.72735281938136</v>
+        <v>19.82033087169392</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>2.222163347579782</v>
       </c>
       <c r="I24">
-        <v>36.21451381368216</v>
+        <v>3.038157869763878</v>
       </c>
       <c r="J24">
-        <v>6.409782744134812</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K24">
-        <v>12.67018303350686</v>
+        <v>12.97199880225513</v>
       </c>
       <c r="L24">
-        <v>6.786586364360629</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>10.70181900793226</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>9.168109531390959</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>15.09772000900048</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.19466604980931</v>
+        <v>26.36396136123859</v>
       </c>
       <c r="C25">
-        <v>7.931336839493897</v>
+        <v>16.35172486435455</v>
       </c>
       <c r="D25">
-        <v>2.77552353184963</v>
+        <v>5.010566079722881</v>
       </c>
       <c r="E25">
-        <v>5.676461610702386</v>
+        <v>8.477560334391473</v>
       </c>
       <c r="F25">
-        <v>49.54011633353185</v>
+        <v>18.87627619108502</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>1.838152176820619</v>
       </c>
       <c r="I25">
-        <v>34.99769322229734</v>
+        <v>2.722546802121364</v>
       </c>
       <c r="J25">
-        <v>6.445800726879275</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K25">
-        <v>11.77470285418515</v>
+        <v>13.27393339854696</v>
       </c>
       <c r="L25">
-        <v>6.716744087285581</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>10.36441156997852</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>8.565053847064966</v>
       </c>
       <c r="O25">
         <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>14.76582078023311</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_14/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_14/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.19098111277084</v>
+        <v>24.22838278210111</v>
       </c>
       <c r="C2">
-        <v>15.248380478173</v>
+        <v>15.53398347038761</v>
       </c>
       <c r="D2">
-        <v>4.771179276025958</v>
+        <v>4.811337005196223</v>
       </c>
       <c r="E2">
-        <v>8.321232127636501</v>
+        <v>8.243830208828925</v>
       </c>
       <c r="F2">
-        <v>18.2966127729187</v>
+        <v>17.73016469109956</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.57705599997436</v>
+        <v>1.618984794738296</v>
       </c>
       <c r="I2">
-        <v>2.472680629677559</v>
+        <v>2.564412340746893</v>
       </c>
       <c r="J2">
-        <v>4.251792669784106</v>
+        <v>5.716774528916059</v>
       </c>
       <c r="K2">
-        <v>13.58188612051233</v>
+        <v>13.07984837601962</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>11.38520060180017</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>7.953313125129463</v>
       </c>
       <c r="N2">
-        <v>8.087183344043469</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>8.172246392444432</v>
       </c>
       <c r="Q2">
-        <v>14.62834273202277</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>14.14768018059611</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.59685041073414</v>
+        <v>22.64062895464355</v>
       </c>
       <c r="C3">
-        <v>14.50740335485244</v>
+        <v>14.68788782563758</v>
       </c>
       <c r="D3">
-        <v>4.610985095607266</v>
+        <v>4.628095962509466</v>
       </c>
       <c r="E3">
-        <v>8.20175795912956</v>
+        <v>8.139686186772547</v>
       </c>
       <c r="F3">
-        <v>17.86655896238992</v>
+        <v>17.36698980352351</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1.791201051762127</v>
+        <v>1.701491717332403</v>
       </c>
       <c r="I3">
-        <v>2.647889739822638</v>
+        <v>2.541113494635812</v>
       </c>
       <c r="J3">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K3">
-        <v>13.77074941027336</v>
+        <v>13.2991228406247</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>11.58894963219661</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>8.102738784470162</v>
       </c>
       <c r="N3">
-        <v>7.751118667589223</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>7.838364350854429</v>
       </c>
       <c r="Q3">
-        <v>14.51408557321452</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>14.08375203427139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.55799165378488</v>
+        <v>21.60588574826313</v>
       </c>
       <c r="C4">
-        <v>14.03503524153108</v>
+        <v>14.14743052645548</v>
       </c>
       <c r="D4">
-        <v>4.509672511939282</v>
+        <v>4.512176551136753</v>
       </c>
       <c r="E4">
-        <v>8.125859507576536</v>
+        <v>8.073362121120823</v>
       </c>
       <c r="F4">
-        <v>17.60886418618541</v>
+        <v>17.1497053197006</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1.927255761433343</v>
+        <v>1.829108532909048</v>
       </c>
       <c r="I4">
-        <v>2.760423876812009</v>
+        <v>2.643098575668542</v>
       </c>
       <c r="J4">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K4">
-        <v>13.89241718679011</v>
+        <v>13.43798338852144</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>11.7173827196056</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>8.215860715187139</v>
       </c>
       <c r="N4">
-        <v>7.53750743510231</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>7.626442886151913</v>
       </c>
       <c r="Q4">
-        <v>14.45215136294851</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>14.05158165206029</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.11935338763498</v>
+        <v>21.16898163350739</v>
       </c>
       <c r="C5">
-        <v>13.84796720148293</v>
+        <v>13.93168466228347</v>
       </c>
       <c r="D5">
-        <v>4.469413014260278</v>
+        <v>4.465860168402727</v>
       </c>
       <c r="E5">
-        <v>8.092483009736851</v>
+        <v>8.044054037790442</v>
       </c>
       <c r="F5">
-        <v>17.49521359001108</v>
+        <v>17.05275096250389</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1.98415327503521</v>
+        <v>1.882501698220769</v>
       </c>
       <c r="I5">
-        <v>2.810393295253708</v>
+        <v>2.689294056243311</v>
       </c>
       <c r="J5">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K5">
-        <v>13.93719377517389</v>
+        <v>13.48992276426016</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>11.76511248954739</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>8.264145967531778</v>
       </c>
       <c r="N5">
-        <v>7.449458986257628</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>7.539135292312485</v>
       </c>
       <c r="Q5">
-        <v>14.42115872281389</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>14.03279493231172</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.04543478409231</v>
+        <v>21.09534885691818</v>
       </c>
       <c r="C6">
-        <v>13.82851073256484</v>
+        <v>13.90732651814309</v>
       </c>
       <c r="D6">
-        <v>4.464816178042616</v>
+        <v>4.460248747323686</v>
       </c>
       <c r="E6">
-        <v>8.084698667027448</v>
+        <v>8.037105705349736</v>
       </c>
       <c r="F6">
-        <v>17.46380119751548</v>
+        <v>17.02464373221748</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1.994021866791912</v>
+        <v>1.891780309223264</v>
       </c>
       <c r="I6">
-        <v>2.822588872325989</v>
+        <v>2.701584566117965</v>
       </c>
       <c r="J6">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K6">
-        <v>13.93716195170458</v>
+        <v>13.49167964389313</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>11.76644378132785</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>8.268842222993335</v>
       </c>
       <c r="N6">
-        <v>7.435651012068956</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>7.525404176086781</v>
       </c>
       <c r="Q6">
-        <v>14.40663454323059</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>14.02074644393513</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.5516940426591</v>
+        <v>21.5995963567862</v>
       </c>
       <c r="C7">
-        <v>14.06442752964547</v>
+        <v>14.17618899888195</v>
       </c>
       <c r="D7">
-        <v>4.514911127583318</v>
+        <v>4.517327121404889</v>
       </c>
       <c r="E7">
-        <v>8.119453122079413</v>
+        <v>8.06745495508989</v>
       </c>
       <c r="F7">
-        <v>17.57306345214185</v>
+        <v>17.11564143146183</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1.92895269328612</v>
+        <v>1.830746245668325</v>
       </c>
       <c r="I7">
-        <v>2.771255199372969</v>
+        <v>2.655784780127938</v>
       </c>
       <c r="J7">
-        <v>4.251792669778333</v>
+        <v>5.712988455786178</v>
       </c>
       <c r="K7">
-        <v>13.87236804519544</v>
+        <v>13.41981475215704</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>11.70042707611637</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>8.205944986374032</v>
       </c>
       <c r="N7">
-        <v>7.538796828532421</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>7.627603471892903</v>
       </c>
       <c r="Q7">
-        <v>14.42587021493618</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>14.02677369104474</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.65320648190096</v>
+        <v>23.69276122498096</v>
       </c>
       <c r="C8">
-        <v>15.03663413819477</v>
+        <v>15.28636008396239</v>
       </c>
       <c r="D8">
-        <v>4.724036135023058</v>
+        <v>4.756339273720347</v>
       </c>
       <c r="E8">
-        <v>8.272945322508718</v>
+        <v>8.201428172026297</v>
       </c>
       <c r="F8">
-        <v>18.10312027170144</v>
+        <v>17.56186101319795</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1.651101507241548</v>
+        <v>1.570169620351495</v>
       </c>
       <c r="I8">
-        <v>2.544936322589</v>
+        <v>2.516493498855629</v>
       </c>
       <c r="J8">
-        <v>4.251792669778333</v>
+        <v>5.711640832521052</v>
       </c>
       <c r="K8">
-        <v>13.61836816481207</v>
+        <v>13.1298619891359</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>11.43381684057719</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>7.983649691116611</v>
       </c>
       <c r="N8">
-        <v>7.975992985441089</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>8.061573231372414</v>
       </c>
       <c r="Q8">
-        <v>14.55346593572385</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>14.09220393287578</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.3012206427065</v>
+        <v>27.32556003202952</v>
       </c>
       <c r="C9">
-        <v>16.7479630108476</v>
+        <v>17.23963821062298</v>
       </c>
       <c r="D9">
-        <v>5.099542784671245</v>
+        <v>5.186386866053649</v>
       </c>
       <c r="E9">
-        <v>8.564172822923112</v>
+        <v>8.454904915222489</v>
       </c>
       <c r="F9">
-        <v>19.2472824064599</v>
+        <v>18.53595915480765</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>1.97085310442461</v>
+        <v>2.01851194321898</v>
       </c>
       <c r="I9">
-        <v>2.82490688373939</v>
+        <v>2.884611060070206</v>
       </c>
       <c r="J9">
-        <v>4.251792669778333</v>
+        <v>5.712301332179654</v>
       </c>
       <c r="K9">
-        <v>13.20538484541062</v>
+        <v>12.62962432250458</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>10.96427930013207</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>7.750775999575916</v>
       </c>
       <c r="N9">
-        <v>8.768585345046318</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>8.850537300866911</v>
       </c>
       <c r="Q9">
-        <v>14.91658072774869</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>14.32279442355032</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.69425033796678</v>
+        <v>29.7078019680269</v>
       </c>
       <c r="C10">
-        <v>18.02004750636122</v>
+        <v>18.65719869297995</v>
       </c>
       <c r="D10">
-        <v>5.388184777388686</v>
+        <v>5.509816856751497</v>
       </c>
       <c r="E10">
-        <v>8.677147127031008</v>
+        <v>8.551082725002363</v>
       </c>
       <c r="F10">
-        <v>19.94825202311721</v>
+        <v>19.1321900157176</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>2.307262847371746</v>
+        <v>2.333189116527573</v>
       </c>
       <c r="I10">
-        <v>3.108232630300165</v>
+        <v>3.142360410631022</v>
       </c>
       <c r="J10">
-        <v>4.251792669778333</v>
+        <v>5.744419754315621</v>
       </c>
       <c r="K10">
-        <v>12.83210636688146</v>
+        <v>12.20341793306351</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>10.58078078485371</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>7.625607016363199</v>
       </c>
       <c r="N10">
-        <v>9.17862799809115</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>9.257620634815623</v>
       </c>
       <c r="Q10">
-        <v>15.09760671255628</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>14.41951952116171</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.70432256635463</v>
+        <v>30.71456857309861</v>
       </c>
       <c r="C11">
-        <v>19.42480569074753</v>
+        <v>20.00205514251943</v>
       </c>
       <c r="D11">
-        <v>5.759414792604346</v>
+        <v>5.87413330994339</v>
       </c>
       <c r="E11">
-        <v>8.224249503968755</v>
+        <v>8.17204449976701</v>
       </c>
       <c r="F11">
-        <v>18.96049862894942</v>
+        <v>18.25745428818961</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>3.113151420267066</v>
+        <v>3.127816474464444</v>
       </c>
       <c r="I11">
-        <v>3.200073526762581</v>
+        <v>3.228507083197415</v>
       </c>
       <c r="J11">
-        <v>4.251792669778333</v>
+        <v>5.942780798806009</v>
       </c>
       <c r="K11">
-        <v>11.87221617285893</v>
+        <v>11.38747974633012</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>10.03233198921251</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>6.986495543398698</v>
       </c>
       <c r="N11">
-        <v>8.236623226674732</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>8.301889201894316</v>
       </c>
       <c r="Q11">
-        <v>14.13712940493574</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>13.55887438828458</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.07276473742259</v>
+        <v>31.08226393224168</v>
       </c>
       <c r="C12">
-        <v>20.33185139434018</v>
+        <v>20.82241297815514</v>
       </c>
       <c r="D12">
-        <v>6.015145170236745</v>
+        <v>6.114421590037278</v>
       </c>
       <c r="E12">
-        <v>8.194033485133891</v>
+        <v>8.194496875205076</v>
       </c>
       <c r="F12">
-        <v>18.00513699228009</v>
+        <v>17.41897025781958</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.314420848409407</v>
+        <v>4.324183377181335</v>
       </c>
       <c r="I12">
-        <v>3.219079076899821</v>
+        <v>3.245810847765955</v>
       </c>
       <c r="J12">
-        <v>4.251792669778333</v>
+        <v>6.092466875987244</v>
       </c>
       <c r="K12">
-        <v>11.231510029255</v>
+        <v>10.86886172747293</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>9.724018772215045</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>6.509727282255332</v>
       </c>
       <c r="N12">
-        <v>7.380431912815011</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>7.434441300492635</v>
       </c>
       <c r="Q12">
-        <v>13.31492331548508</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>12.83726523005372</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>30.98203561726516</v>
+        <v>30.99272065650815</v>
       </c>
       <c r="C13">
-        <v>20.97184741786296</v>
+        <v>21.34895861689167</v>
       </c>
       <c r="D13">
-        <v>6.208563241968927</v>
+        <v>6.285236147626263</v>
       </c>
       <c r="E13">
-        <v>8.473383918806956</v>
+        <v>8.505158912932014</v>
       </c>
       <c r="F13">
-        <v>16.94766376384674</v>
+        <v>16.49300810425837</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>5.602134425121204</v>
+        <v>5.610425073693696</v>
       </c>
       <c r="I13">
-        <v>3.186903591885083</v>
+        <v>3.216408700547412</v>
       </c>
       <c r="J13">
-        <v>4.251792669778333</v>
+        <v>6.056017976358584</v>
       </c>
       <c r="K13">
-        <v>10.78404376443946</v>
+        <v>10.52982568728248</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>9.543221547401416</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>6.132341683545633</v>
       </c>
       <c r="N13">
-        <v>6.539588989454789</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>6.583915939818932</v>
       </c>
       <c r="Q13">
-        <v>12.50572501578156</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>12.13784072321473</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.7095932281973</v>
+        <v>30.72193989468289</v>
       </c>
       <c r="C14">
-        <v>21.31624630398378</v>
+        <v>21.60004809346847</v>
       </c>
       <c r="D14">
-        <v>6.31959931282042</v>
+        <v>6.37690505726336</v>
       </c>
       <c r="E14">
-        <v>8.838727987568841</v>
+        <v>8.878194568337502</v>
       </c>
       <c r="F14">
-        <v>16.14545508622993</v>
+        <v>15.79052417563461</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>6.533253378693315</v>
+        <v>6.541305799271384</v>
       </c>
       <c r="I14">
-        <v>3.142509970562762</v>
+        <v>3.176236081612444</v>
       </c>
       <c r="J14">
-        <v>4.251792669778333</v>
+        <v>5.953276842055249</v>
       </c>
       <c r="K14">
-        <v>10.57656834440956</v>
+        <v>10.38536123055106</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>9.470978802305986</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>5.93762050483456</v>
       </c>
       <c r="N14">
-        <v>5.973033739957774</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>6.011801768670826</v>
       </c>
       <c r="Q14">
-        <v>11.9422397698708</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>11.65467680965389</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.54359672105364</v>
+        <v>30.5567854073059</v>
       </c>
       <c r="C15">
-        <v>21.35314058858111</v>
+        <v>21.6086567395736</v>
       </c>
       <c r="D15">
-        <v>6.334767655538381</v>
+        <v>6.386021540397838</v>
       </c>
       <c r="E15">
-        <v>8.941205989141174</v>
+        <v>8.980231860298387</v>
       </c>
       <c r="F15">
-        <v>15.91827722645015</v>
+        <v>15.59109615258516</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>6.744999055097205</v>
+        <v>6.753248233589505</v>
       </c>
       <c r="I15">
-        <v>3.121498157759294</v>
+        <v>3.157747988022217</v>
       </c>
       <c r="J15">
-        <v>4.251792669778333</v>
+        <v>5.901744702216713</v>
       </c>
       <c r="K15">
-        <v>10.5568309693894</v>
+        <v>10.37851416379349</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>9.467625368152861</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>5.912097706908145</v>
       </c>
       <c r="N15">
-        <v>5.835748416832008</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>5.873706083036344</v>
       </c>
       <c r="Q15">
-        <v>11.80182895938778</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>11.53580284454125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.58224502733511</v>
+        <v>29.59976332630042</v>
       </c>
       <c r="C16">
-        <v>20.76038221428813</v>
+        <v>20.9737992613769</v>
       </c>
       <c r="D16">
-        <v>6.18676647515703</v>
+        <v>6.227850952425415</v>
       </c>
       <c r="E16">
-        <v>8.823831353119193</v>
+        <v>8.856707536288235</v>
       </c>
       <c r="F16">
-        <v>15.76188850129069</v>
+        <v>15.45831807670373</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>6.473528982883531</v>
+        <v>6.484304264910692</v>
       </c>
       <c r="I16">
-        <v>3.0084645869316</v>
+        <v>3.055744514087327</v>
       </c>
       <c r="J16">
-        <v>4.251792669778333</v>
+        <v>5.738831790925769</v>
       </c>
       <c r="K16">
-        <v>10.81544735559213</v>
+        <v>10.62518397826808</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>9.593875980353836</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>6.101079269919088</v>
       </c>
       <c r="N16">
-        <v>5.795860630083462</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>5.83854026191861</v>
       </c>
       <c r="Q16">
-        <v>11.86181981733572</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>11.61013341936425</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.97971619003063</v>
+        <v>28.99968466437625</v>
       </c>
       <c r="C17">
-        <v>20.10430432702816</v>
+        <v>20.33678327904817</v>
       </c>
       <c r="D17">
-        <v>6.009972628983558</v>
+        <v>6.053840182191061</v>
       </c>
       <c r="E17">
-        <v>8.509242940460574</v>
+        <v>8.536601647153983</v>
       </c>
       <c r="F17">
-        <v>16.08181127989084</v>
+        <v>15.74221396095374</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>5.721575149972738</v>
+        <v>5.734990230087619</v>
       </c>
       <c r="I17">
-        <v>2.945481232314562</v>
+        <v>2.999090611051815</v>
       </c>
       <c r="J17">
-        <v>4.251792669778333</v>
+        <v>5.713305037326999</v>
       </c>
       <c r="K17">
-        <v>11.10984409412267</v>
+        <v>10.88299488844677</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>9.74134819088898</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>6.323857151580357</v>
       </c>
       <c r="N17">
-        <v>6.063503534873364</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>6.112102128043835</v>
       </c>
       <c r="Q17">
-        <v>12.2071375512283</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>11.92456227072197</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.6326962135614</v>
+        <v>28.65370116911491</v>
       </c>
       <c r="C18">
-        <v>19.30714527630281</v>
+        <v>19.61269903154541</v>
       </c>
       <c r="D18">
-        <v>5.787820611134522</v>
+        <v>5.845351540945469</v>
       </c>
       <c r="E18">
-        <v>8.147881813475905</v>
+        <v>8.159732548870926</v>
       </c>
       <c r="F18">
-        <v>16.86534722595336</v>
+        <v>16.43355447806841</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.506778038345596</v>
+        <v>4.524517581810573</v>
       </c>
       <c r="I18">
-        <v>2.917169859707008</v>
+        <v>2.972330938620357</v>
       </c>
       <c r="J18">
-        <v>4.251792669778333</v>
+        <v>5.711150574177133</v>
       </c>
       <c r="K18">
-        <v>11.5237816928718</v>
+        <v>11.22500290240979</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>9.960440935836468</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>6.625455475364713</v>
       </c>
       <c r="N18">
-        <v>6.669947181836239</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>6.726395956642753</v>
       </c>
       <c r="Q18">
-        <v>12.85638319545886</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>12.49874131778059</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.52253852196278</v>
+        <v>28.5432000357659</v>
       </c>
       <c r="C19">
-        <v>18.53164568873747</v>
+        <v>18.94189032568046</v>
       </c>
       <c r="D19">
-        <v>5.564388703768643</v>
+        <v>5.641479810988698</v>
       </c>
       <c r="E19">
-        <v>8.047979886745463</v>
+        <v>8.021523684591166</v>
       </c>
       <c r="F19">
-        <v>17.89756006947211</v>
+        <v>17.338031721211</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>3.156493625457361</v>
+        <v>3.181942205437738</v>
       </c>
       <c r="I19">
-        <v>2.930866002235912</v>
+        <v>2.985393424664341</v>
       </c>
       <c r="J19">
-        <v>4.251792669778333</v>
+        <v>5.711490394033017</v>
       </c>
       <c r="K19">
-        <v>12.04301239596081</v>
+        <v>11.63879002435494</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>10.23918406612377</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>6.992767747753668</v>
       </c>
       <c r="N19">
-        <v>7.550510638165524</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>7.616213891394821</v>
       </c>
       <c r="Q19">
-        <v>13.66689555184922</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>13.20417649081216</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.08367765887763</v>
+        <v>29.10008877199838</v>
       </c>
       <c r="C20">
-        <v>17.78046238376381</v>
+        <v>18.37872465554144</v>
       </c>
       <c r="D20">
-        <v>5.33129600642859</v>
+        <v>5.443813339639783</v>
       </c>
       <c r="E20">
-        <v>8.627954236736903</v>
+        <v>8.508195777498493</v>
       </c>
       <c r="F20">
-        <v>19.6614102341313</v>
+        <v>18.87804654758308</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>2.216165777085839</v>
+        <v>2.247809251979172</v>
       </c>
       <c r="I20">
-        <v>3.044347839367351</v>
+        <v>3.088247610294858</v>
       </c>
       <c r="J20">
-        <v>4.251792669778333</v>
+        <v>5.714445660903893</v>
       </c>
       <c r="K20">
-        <v>12.85921350827041</v>
+        <v>12.25377141268228</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>10.63962657406855</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>7.59733405523437</v>
       </c>
       <c r="N20">
-        <v>9.073472691207654</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>9.152815373138134</v>
       </c>
       <c r="Q20">
-        <v>14.96594509820438</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>14.31520149206709</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.83467188582479</v>
+        <v>30.84242876752091</v>
       </c>
       <c r="C21">
-        <v>18.56215070483184</v>
+        <v>19.28703162427501</v>
       </c>
       <c r="D21">
-        <v>5.502234139225306</v>
+        <v>5.643929158378079</v>
       </c>
       <c r="E21">
-        <v>8.849121182612867</v>
+        <v>8.701684529085023</v>
       </c>
       <c r="F21">
-        <v>20.45541586703668</v>
+        <v>19.56324097917616</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>2.485507879019926</v>
+        <v>2.500208811746649</v>
       </c>
       <c r="I21">
-        <v>3.263478714031308</v>
+        <v>3.28677510799756</v>
       </c>
       <c r="J21">
-        <v>4.251792669778333</v>
+        <v>6.072890156015649</v>
       </c>
       <c r="K21">
-        <v>12.74157168609824</v>
+        <v>12.06083342182717</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>10.43641033977884</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>7.652915292154544</v>
       </c>
       <c r="N21">
-        <v>9.580400445387058</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>9.659962043854094</v>
       </c>
       <c r="Q21">
-        <v>15.31910277628131</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>14.57752011837883</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>31.92778515833291</v>
+        <v>31.92988886020696</v>
       </c>
       <c r="C22">
-        <v>19.071585312613</v>
+        <v>19.86936376082735</v>
       </c>
       <c r="D22">
-        <v>5.617843838288953</v>
+        <v>5.776850462259881</v>
       </c>
       <c r="E22">
-        <v>8.954000645546738</v>
+        <v>8.792845024577852</v>
       </c>
       <c r="F22">
-        <v>20.93818010460784</v>
+        <v>19.98347795718795</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>2.653249541867129</v>
+        <v>2.65713958336748</v>
       </c>
       <c r="I22">
-        <v>3.398601975591043</v>
+        <v>3.407693436379162</v>
       </c>
       <c r="J22">
-        <v>4.251792669778333</v>
+        <v>6.613666634130157</v>
       </c>
       <c r="K22">
-        <v>12.65283666614191</v>
+        <v>11.92683010151827</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>10.29518517590773</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>7.703820113734501</v>
       </c>
       <c r="N22">
-        <v>9.832490523363012</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>9.911730790583047</v>
       </c>
       <c r="Q22">
-        <v>15.52875637990145</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>14.7340371031066</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.34938528937315</v>
+        <v>31.35450759802189</v>
       </c>
       <c r="C23">
-        <v>18.77131281946729</v>
+        <v>19.5310255535695</v>
       </c>
       <c r="D23">
-        <v>5.550426619470506</v>
+        <v>5.700299296912612</v>
       </c>
       <c r="E23">
-        <v>8.904259303259678</v>
+        <v>8.74976247305333</v>
       </c>
       <c r="F23">
-        <v>20.71458687308176</v>
+        <v>19.79152980718754</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>2.564792947984312</v>
+        <v>2.574418633004601</v>
       </c>
       <c r="I23">
-        <v>3.323002005816976</v>
+        <v>3.338447091160116</v>
       </c>
       <c r="J23">
-        <v>4.251792669778333</v>
+        <v>6.216599296839356</v>
       </c>
       <c r="K23">
-        <v>12.72432266253728</v>
+        <v>12.01952023023327</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>10.38345834807121</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>7.694919240035341</v>
       </c>
       <c r="N23">
-        <v>9.696280038681348</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>9.775795290860033</v>
       </c>
       <c r="Q23">
-        <v>15.44405911801811</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>14.67610683011417</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.05657940863991</v>
+        <v>29.07296460905867</v>
       </c>
       <c r="C24">
-        <v>17.64505584218222</v>
+        <v>18.25270350679156</v>
       </c>
       <c r="D24">
-        <v>5.297748671412374</v>
+        <v>5.411658478465027</v>
       </c>
       <c r="E24">
-        <v>8.702628150294178</v>
+        <v>8.574808085894274</v>
       </c>
       <c r="F24">
-        <v>19.82033087169392</v>
+        <v>19.02149166406673</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>2.222163347579782</v>
+        <v>2.253793480186447</v>
       </c>
       <c r="I24">
-        <v>3.038157869763878</v>
+        <v>3.080001161074562</v>
       </c>
       <c r="J24">
-        <v>4.251792669778333</v>
+        <v>5.713894566704329</v>
       </c>
       <c r="K24">
-        <v>12.97199880225513</v>
+        <v>12.34790780242452</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>10.70368678671765</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>7.678340058231506</v>
       </c>
       <c r="N24">
-        <v>9.168109531390959</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>9.248724969492967</v>
       </c>
       <c r="Q24">
-        <v>15.09772000900048</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>14.43333608627084</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.36396136123859</v>
+        <v>26.39235003976579</v>
       </c>
       <c r="C25">
-        <v>16.35172486435455</v>
+        <v>16.78053538131471</v>
       </c>
       <c r="D25">
-        <v>5.010566079722881</v>
+        <v>5.083118587530532</v>
       </c>
       <c r="E25">
-        <v>8.477560334391473</v>
+        <v>8.379265135922513</v>
       </c>
       <c r="F25">
-        <v>18.87627619108502</v>
+        <v>18.21366805568111</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>1.838152176820619</v>
+        <v>1.894139129987891</v>
       </c>
       <c r="I25">
-        <v>2.722546802121364</v>
+        <v>2.794032636132422</v>
       </c>
       <c r="J25">
-        <v>4.251792669778333</v>
+        <v>5.711175322947495</v>
       </c>
       <c r="K25">
-        <v>13.27393339854696</v>
+        <v>12.72759938310358</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>11.06371455617543</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>7.766398328201578</v>
       </c>
       <c r="N25">
-        <v>8.565053847064966</v>
+        <v>0</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>8.647558543877556</v>
       </c>
       <c r="Q25">
-        <v>14.76582078023311</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>14.2111582860642</v>
       </c>
     </row>
   </sheetData>
